--- a/kaiseki/around_150.xlsx
+++ b/kaiseki/around_150.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="43" documentId="13_ncr:1_{043469B7-2F82-4AE7-B12F-86246444AF04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{69B7E352-1E0B-40A8-A249-81941C52B56B}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5160" yWindow="480" windowWidth="17805" windowHeight="13575" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -455,7 +455,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="177" formatCode="0.000"/>
+    <numFmt numFmtId="176" formatCode="0.000"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -622,7 +622,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -641,10 +641,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -3356,6 +3355,10 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -3643,7 +3646,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V102"/>
   <sheetViews>
-    <sheetView topLeftCell="L9" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
       <selection activeCell="R29" sqref="R29:V34"/>
     </sheetView>
   </sheetViews>
@@ -8527,7 +8530,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0458DB38-14D0-4BAD-86C0-4A6157317C04}">
   <dimension ref="A1:EK102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Y7" workbookViewId="0">
+    <sheetView topLeftCell="Y7" workbookViewId="0">
       <selection activeCell="AD36" sqref="AD36:AF49"/>
     </sheetView>
   </sheetViews>
@@ -8680,171 +8683,171 @@
         <v>43.936507936507937</v>
       </c>
       <c r="AD2">
-        <f>B4</f>
+        <f t="shared" ref="AD2:AQ2" si="1">B4</f>
         <v>62.930591259640103</v>
       </c>
       <c r="AE2">
-        <f>C4</f>
+        <f t="shared" si="1"/>
         <v>50.333580429948107</v>
       </c>
       <c r="AF2">
-        <f>D4</f>
+        <f t="shared" si="1"/>
         <v>59.353471118176998</v>
       </c>
       <c r="AG2">
-        <f>E4</f>
+        <f t="shared" si="1"/>
         <v>67.880085653104928</v>
       </c>
       <c r="AH2">
-        <f>F4</f>
+        <f t="shared" si="1"/>
         <v>58.169103623649079</v>
       </c>
       <c r="AI2">
-        <f>G4</f>
+        <f t="shared" si="1"/>
         <v>50.666666666666671</v>
       </c>
       <c r="AJ2">
-        <f>H4</f>
+        <f t="shared" si="1"/>
         <v>56.010745466756219</v>
       </c>
       <c r="AK2">
-        <f>I4</f>
+        <f t="shared" si="1"/>
         <v>65.34788540245566</v>
       </c>
       <c r="AL2">
-        <f>J4</f>
+        <f t="shared" si="1"/>
         <v>63.918918918918919</v>
       </c>
       <c r="AM2">
-        <f>K4</f>
+        <f t="shared" si="1"/>
         <v>54.436987322893359</v>
       </c>
       <c r="AN2">
-        <f>L4</f>
+        <f t="shared" si="1"/>
         <v>64.328116567728017</v>
       </c>
       <c r="AO2">
-        <f>M4</f>
+        <f t="shared" si="1"/>
         <v>58.74273639725304</v>
       </c>
       <c r="AP2">
-        <f>N4</f>
+        <f t="shared" si="1"/>
         <v>61.069225496915692</v>
       </c>
       <c r="AQ2">
-        <f>O4</f>
+        <f t="shared" si="1"/>
         <v>48.707482993197267</v>
       </c>
       <c r="AR2">
-        <f>B5</f>
+        <f t="shared" ref="AR2:BE2" si="2">B5</f>
         <v>63.645083932853723</v>
       </c>
       <c r="AS2">
-        <f>C5</f>
+        <f t="shared" si="2"/>
         <v>61.040462427745673</v>
       </c>
       <c r="AT2">
-        <f>D5</f>
+        <f t="shared" si="2"/>
         <v>66.849662162162161</v>
       </c>
       <c r="AU2">
-        <f>E5</f>
+        <f t="shared" si="2"/>
         <v>74.167009461127108</v>
       </c>
       <c r="AV2">
-        <f>F5</f>
+        <f t="shared" si="2"/>
         <v>65.331010452961664</v>
       </c>
       <c r="AW2">
-        <f>G5</f>
+        <f t="shared" si="2"/>
         <v>51.285266457680237</v>
       </c>
       <c r="AX2">
-        <f>H5</f>
+        <f t="shared" si="2"/>
         <v>63.084395871281117</v>
       </c>
       <c r="AY2">
-        <f>I5</f>
+        <f t="shared" si="2"/>
         <v>69.172113289760347</v>
       </c>
       <c r="AZ2">
-        <f>J5</f>
+        <f t="shared" si="2"/>
         <v>65.178571428571431</v>
       </c>
       <c r="BA2">
-        <f>K5</f>
+        <f t="shared" si="2"/>
         <v>59.621656881930853</v>
       </c>
       <c r="BB2">
-        <f>L5</f>
+        <f t="shared" si="2"/>
         <v>66.682442025556071</v>
       </c>
       <c r="BC2">
-        <f>M5</f>
+        <f t="shared" si="2"/>
         <v>68.514094601051127</v>
       </c>
       <c r="BD2">
-        <f>N5</f>
+        <f t="shared" si="2"/>
         <v>65.093768905021179</v>
       </c>
       <c r="BE2">
-        <f>O5</f>
+        <f t="shared" si="2"/>
         <v>54.940711462450601</v>
       </c>
       <c r="BF2">
-        <f>B6</f>
+        <f t="shared" ref="BF2:BS2" si="3">B6</f>
         <v>58.547531619747041</v>
       </c>
       <c r="BG2">
-        <f>C6</f>
+        <f t="shared" si="3"/>
         <v>55.818353831598863</v>
       </c>
       <c r="BH2">
-        <f>D6</f>
+        <f t="shared" si="3"/>
         <v>64.070855614973269</v>
       </c>
       <c r="BI2">
-        <f>E6</f>
+        <f t="shared" si="3"/>
         <v>69.687390235335442</v>
       </c>
       <c r="BJ2">
-        <f>F6</f>
+        <f t="shared" si="3"/>
         <v>54.08348457350273</v>
       </c>
       <c r="BK2">
-        <f>G6</f>
+        <f t="shared" si="3"/>
         <v>49.019607843137251</v>
       </c>
       <c r="BL2">
-        <f>H6</f>
+        <f t="shared" si="3"/>
         <v>57.2841726618705</v>
       </c>
       <c r="BM2">
-        <f>I6</f>
+        <f t="shared" si="3"/>
         <v>55.064130915524103</v>
       </c>
       <c r="BN2">
-        <f>J6</f>
+        <f t="shared" si="3"/>
         <v>54.707719767960732</v>
       </c>
       <c r="BO2">
-        <f>K6</f>
+        <f t="shared" si="3"/>
         <v>52.116650987770463</v>
       </c>
       <c r="BP2">
-        <f>L6</f>
+        <f t="shared" si="3"/>
         <v>54.840032813781789</v>
       </c>
       <c r="BQ2">
-        <f>M6</f>
+        <f t="shared" si="3"/>
         <v>63.326446280991732</v>
       </c>
       <c r="BR2">
-        <f>N6</f>
+        <f t="shared" si="3"/>
         <v>61.376843987483227</v>
       </c>
       <c r="BS2">
-        <f>O6</f>
+        <f t="shared" si="3"/>
         <v>51.057268722466972</v>
       </c>
     </row>
@@ -9083,507 +9086,507 @@
         <v>62.790697674418603</v>
       </c>
       <c r="P7">
-        <f t="shared" ref="P7:AC15" si="1">B8</f>
+        <f t="shared" ref="P7:AC7" si="4">B8</f>
         <v>77.140711066599891</v>
       </c>
       <c r="Q7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>61.974505017629511</v>
       </c>
       <c r="R7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>63.641674780915302</v>
       </c>
       <c r="S7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>87.84729162502498</v>
       </c>
       <c r="T7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>61.795477556530543</v>
       </c>
       <c r="U7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>50.359007832898172</v>
       </c>
       <c r="V7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>74.113746493241521</v>
       </c>
       <c r="W7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>54.169506930243131</v>
       </c>
       <c r="X7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>68.494897959183675</v>
       </c>
       <c r="Y7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>55.460244143846907</v>
       </c>
       <c r="Z7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>71.166752710376869</v>
       </c>
       <c r="AA7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>79.831288343558285</v>
       </c>
       <c r="AB7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>74.305787888926062</v>
       </c>
       <c r="AC7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>57.089452603471287</v>
       </c>
       <c r="AD7">
-        <f>B9</f>
+        <f t="shared" ref="AD7:AQ7" si="5">B9</f>
         <v>76.447969238163907</v>
       </c>
       <c r="AE7">
-        <f>C9</f>
+        <f t="shared" si="5"/>
         <v>75.995055624227433</v>
       </c>
       <c r="AF7">
-        <f>D9</f>
+        <f t="shared" si="5"/>
         <v>71.112735245751864</v>
       </c>
       <c r="AG7">
-        <f>E9</f>
+        <f t="shared" si="5"/>
         <v>89.094914631907471</v>
       </c>
       <c r="AH7">
-        <f>F9</f>
+        <f t="shared" si="5"/>
         <v>68.150771565899319</v>
       </c>
       <c r="AI7">
-        <f>G9</f>
+        <f t="shared" si="5"/>
         <v>53.402868318122557</v>
       </c>
       <c r="AJ7">
-        <f>H9</f>
+        <f t="shared" si="5"/>
         <v>77.742888806797197</v>
       </c>
       <c r="AK7">
-        <f>I9</f>
+        <f t="shared" si="5"/>
         <v>68.98768077129084</v>
       </c>
       <c r="AL7">
-        <f>J9</f>
+        <f t="shared" si="5"/>
         <v>73.447789275635003</v>
       </c>
       <c r="AM7">
-        <f>K9</f>
+        <f t="shared" si="5"/>
         <v>57.116732703444072</v>
       </c>
       <c r="AN7">
-        <f>L9</f>
+        <f t="shared" si="5"/>
         <v>71.103030303030295</v>
       </c>
       <c r="AO7">
-        <f>M9</f>
+        <f t="shared" si="5"/>
         <v>83.494159471813106</v>
       </c>
       <c r="AP7">
-        <f>N9</f>
+        <f t="shared" si="5"/>
         <v>68.234165067178495</v>
       </c>
       <c r="AQ7">
-        <f>O9</f>
+        <f t="shared" si="5"/>
         <v>67.417446077495697</v>
       </c>
       <c r="AR7">
-        <f>B10</f>
+        <f t="shared" ref="AR7:BE7" si="6">B10</f>
         <v>75.304136253041364</v>
       </c>
       <c r="AS7">
-        <f>C10</f>
+        <f t="shared" si="6"/>
         <v>70.523415977961434</v>
       </c>
       <c r="AT7">
-        <f>D10</f>
+        <f t="shared" si="6"/>
         <v>69.101516919486585</v>
       </c>
       <c r="AU7">
-        <f>E10</f>
+        <f t="shared" si="6"/>
         <v>86.860276198212844</v>
       </c>
       <c r="AV7">
-        <f>F10</f>
+        <f t="shared" si="6"/>
         <v>59.44656488549618</v>
       </c>
       <c r="AW7">
-        <f>G10</f>
+        <f t="shared" si="6"/>
         <v>46.336336336336338</v>
       </c>
       <c r="AX7">
-        <f>H10</f>
+        <f t="shared" si="6"/>
         <v>74.611189658654823</v>
       </c>
       <c r="AY7">
-        <f>I10</f>
+        <f t="shared" si="6"/>
         <v>59.350237717908087</v>
       </c>
       <c r="AZ7">
-        <f>J10</f>
+        <f t="shared" si="6"/>
         <v>64.95584988962473</v>
       </c>
       <c r="BA7">
-        <f>K10</f>
+        <f t="shared" si="6"/>
         <v>58.308952603861911</v>
       </c>
       <c r="BB7">
-        <f>L10</f>
+        <f t="shared" si="6"/>
         <v>71.295557329076885</v>
       </c>
       <c r="BC7">
-        <f>M10</f>
+        <f t="shared" si="6"/>
         <v>78.78544138347074</v>
       </c>
       <c r="BD7">
-        <f>N10</f>
+        <f t="shared" si="6"/>
         <v>74.074074074074076</v>
       </c>
       <c r="BE7">
-        <f>O10</f>
+        <f t="shared" si="6"/>
         <v>66.193806193806196</v>
       </c>
       <c r="BF7">
-        <f>B11</f>
+        <f t="shared" ref="BF7:BS7" si="7">B11</f>
         <v>76.937669376693762</v>
       </c>
       <c r="BG7">
-        <f>C11</f>
+        <f t="shared" si="7"/>
         <v>74.178104053622732</v>
       </c>
       <c r="BH7">
-        <f>D11</f>
+        <f t="shared" si="7"/>
         <v>74.889575971731446</v>
       </c>
       <c r="BI7">
-        <f>E11</f>
+        <f t="shared" si="7"/>
         <v>88.279595198870325</v>
       </c>
       <c r="BJ7">
-        <f>F11</f>
+        <f t="shared" si="7"/>
         <v>70.136157337367621</v>
       </c>
       <c r="BK7">
-        <f>G11</f>
+        <f t="shared" si="7"/>
         <v>52.787624879149213</v>
       </c>
       <c r="BL7">
-        <f>H11</f>
+        <f t="shared" si="7"/>
         <v>79.431732461654519</v>
       </c>
       <c r="BM7">
-        <f>I11</f>
+        <f t="shared" si="7"/>
         <v>65.692534381139495</v>
       </c>
       <c r="BN7">
-        <f>J11</f>
+        <f t="shared" si="7"/>
         <v>80.091086532205594</v>
       </c>
       <c r="BO7">
-        <f>K11</f>
+        <f t="shared" si="7"/>
         <v>69.346871569703623</v>
       </c>
       <c r="BP7">
-        <f>L11</f>
+        <f t="shared" si="7"/>
         <v>78.420641125879598</v>
       </c>
       <c r="BQ7">
-        <f>M11</f>
+        <f t="shared" si="7"/>
         <v>85.798301023742113</v>
       </c>
       <c r="BR7">
-        <f>N11</f>
+        <f t="shared" si="7"/>
         <v>75.008558712769599</v>
       </c>
       <c r="BS7">
-        <f>O11</f>
+        <f t="shared" si="7"/>
         <v>76.235449154403696</v>
       </c>
       <c r="BT7">
-        <f>B12</f>
+        <f t="shared" ref="BT7:CG7" si="8">B12</f>
         <v>78.208368435832625</v>
       </c>
       <c r="BU7">
-        <f>C12</f>
+        <f t="shared" si="8"/>
         <v>70.072992700729927</v>
       </c>
       <c r="BV7">
-        <f>D12</f>
+        <f t="shared" si="8"/>
         <v>76.027224602974542</v>
       </c>
       <c r="BW7">
-        <f>E12</f>
+        <f t="shared" si="8"/>
         <v>89.550264550264544</v>
       </c>
       <c r="BX7">
-        <f>F12</f>
+        <f t="shared" si="8"/>
         <v>63.514976542764337</v>
       </c>
       <c r="BY7">
-        <f>G12</f>
+        <f t="shared" si="8"/>
         <v>53.115066751430383</v>
       </c>
       <c r="BZ7">
-        <f>H12</f>
+        <f t="shared" si="8"/>
         <v>76.312546216416067</v>
       </c>
       <c r="CA7">
-        <f>I12</f>
+        <f t="shared" si="8"/>
         <v>73.00813008130082</v>
       </c>
       <c r="CB7">
-        <f>J12</f>
+        <f t="shared" si="8"/>
         <v>74.817391304347822</v>
       </c>
       <c r="CC7">
-        <f>K12</f>
+        <f t="shared" si="8"/>
         <v>61.413889753970729</v>
       </c>
       <c r="CD7">
-        <f>L12</f>
+        <f t="shared" si="8"/>
         <v>87.285407725321889</v>
       </c>
       <c r="CE7">
-        <f>M12</f>
+        <f t="shared" si="8"/>
         <v>76.698353814050549</v>
       </c>
       <c r="CF7">
-        <f>N12</f>
+        <f t="shared" si="8"/>
         <v>76.328325393917183</v>
       </c>
       <c r="CG7">
-        <f>O12</f>
+        <f t="shared" si="8"/>
         <v>75.77523898344603</v>
       </c>
       <c r="CH7">
-        <f>B13</f>
+        <f t="shared" ref="CH7:CU7" si="9">B13</f>
         <v>75.380507343124165</v>
       </c>
       <c r="CI7">
-        <f>C13</f>
+        <f t="shared" si="9"/>
         <v>75.048302511730611</v>
       </c>
       <c r="CJ7">
-        <f>D13</f>
+        <f t="shared" si="9"/>
         <v>75.565217391304344</v>
       </c>
       <c r="CK7">
-        <f>E13</f>
+        <f t="shared" si="9"/>
         <v>89.925954793452846</v>
       </c>
       <c r="CL7">
-        <f>F13</f>
+        <f t="shared" si="9"/>
         <v>72.835820895522389</v>
       </c>
       <c r="CM7">
-        <f>G13</f>
+        <f t="shared" si="9"/>
         <v>61.820480404551198</v>
       </c>
       <c r="CN7">
-        <f>H13</f>
+        <f t="shared" si="9"/>
         <v>76.700547302580134</v>
       </c>
       <c r="CO7">
-        <f>I13</f>
+        <f t="shared" si="9"/>
         <v>68.921568627450981</v>
       </c>
       <c r="CP7">
-        <f>J13</f>
+        <f t="shared" si="9"/>
         <v>74.493444576877238</v>
       </c>
       <c r="CQ7">
-        <f>K13</f>
+        <f t="shared" si="9"/>
         <v>62.542010388023208</v>
       </c>
       <c r="CR7">
-        <f>L13</f>
+        <f t="shared" si="9"/>
         <v>84.470588235294116</v>
       </c>
       <c r="CS7">
-        <f>M13</f>
+        <f t="shared" si="9"/>
         <v>81.731253145445393</v>
       </c>
       <c r="CT7">
-        <f>N13</f>
+        <f t="shared" si="9"/>
         <v>75.936550793115089</v>
       </c>
       <c r="CU7">
-        <f>O13</f>
+        <f t="shared" si="9"/>
         <v>80.567406143344712</v>
       </c>
       <c r="CV7">
-        <f>B14</f>
+        <f t="shared" ref="CV7:DI7" si="10">B14</f>
         <v>73.101839854884687</v>
       </c>
       <c r="CW7">
-        <f>C14</f>
+        <f t="shared" si="10"/>
         <v>71.673445671121442</v>
       </c>
       <c r="CX7">
-        <f>D14</f>
+        <f t="shared" si="10"/>
         <v>76.553980370774269</v>
       </c>
       <c r="CY7">
-        <f>E14</f>
+        <f t="shared" si="10"/>
         <v>88.231906315991552</v>
       </c>
       <c r="CZ7">
-        <f>F14</f>
+        <f t="shared" si="10"/>
         <v>67.466077627011671</v>
       </c>
       <c r="DA7">
-        <f>G14</f>
+        <f t="shared" si="10"/>
         <v>68.319637291017287</v>
       </c>
       <c r="DB7">
-        <f>H14</f>
+        <f t="shared" si="10"/>
         <v>79.62095875139353</v>
       </c>
       <c r="DC7">
-        <f>I14</f>
+        <f t="shared" si="10"/>
         <v>75.634127594158343</v>
       </c>
       <c r="DD7">
-        <f>J14</f>
+        <f t="shared" si="10"/>
         <v>77.753484558622574</v>
       </c>
       <c r="DE7">
-        <f>K14</f>
+        <f t="shared" si="10"/>
         <v>68.638729115310866</v>
       </c>
       <c r="DF7">
-        <f>L14</f>
+        <f t="shared" si="10"/>
         <v>84.602614650342389</v>
       </c>
       <c r="DG7">
-        <f>M14</f>
+        <f t="shared" si="10"/>
         <v>78.875451547039418</v>
       </c>
       <c r="DH7">
-        <f>N14</f>
+        <f t="shared" si="10"/>
         <v>81.09975131251727</v>
       </c>
       <c r="DI7">
-        <f>O14</f>
+        <f t="shared" si="10"/>
         <v>75.593908629441614</v>
       </c>
       <c r="DJ7">
-        <f>B15</f>
+        <f t="shared" ref="DJ7:DW7" si="11">B15</f>
         <v>69.345484672742344</v>
       </c>
       <c r="DK7">
-        <f>C15</f>
+        <f t="shared" si="11"/>
         <v>68.555240793201136</v>
       </c>
       <c r="DL7">
-        <f>D15</f>
+        <f t="shared" si="11"/>
         <v>72.929581942457474</v>
       </c>
       <c r="DM7">
-        <f>E15</f>
+        <f t="shared" si="11"/>
         <v>86.51285227624652</v>
       </c>
       <c r="DN7">
-        <f>F15</f>
+        <f t="shared" si="11"/>
         <v>67.131747483989017</v>
       </c>
       <c r="DO7">
-        <f>G15</f>
+        <f t="shared" si="11"/>
         <v>52.076608564665371</v>
       </c>
       <c r="DP7">
-        <f>H15</f>
+        <f t="shared" si="11"/>
         <v>72.831360372598482</v>
       </c>
       <c r="DQ7">
-        <f>I15</f>
+        <f t="shared" si="11"/>
         <v>72.721571906354512</v>
       </c>
       <c r="DR7">
-        <f>J15</f>
+        <f t="shared" si="11"/>
         <v>72.608236536430837</v>
       </c>
       <c r="DS7">
-        <f>K15</f>
+        <f t="shared" si="11"/>
         <v>61.43424433543565</v>
       </c>
       <c r="DT7">
-        <f>L15</f>
+        <f t="shared" si="11"/>
         <v>84.478409259534061</v>
       </c>
       <c r="DU7">
-        <f>M15</f>
+        <f t="shared" si="11"/>
         <v>77.1136396370445</v>
       </c>
       <c r="DV7">
-        <f>N15</f>
+        <f t="shared" si="11"/>
         <v>79.309529439583827</v>
       </c>
       <c r="DW7">
-        <f>O15</f>
+        <f t="shared" si="11"/>
         <v>73.296178343949052</v>
       </c>
       <c r="DX7">
-        <f>B16</f>
+        <f t="shared" ref="DX7:EK7" si="12">B16</f>
         <v>76.667937476172327</v>
       </c>
       <c r="DY7">
-        <f>C16</f>
+        <f t="shared" si="12"/>
         <v>63.821846230405583</v>
       </c>
       <c r="DZ7">
-        <f>D16</f>
+        <f t="shared" si="12"/>
         <v>73.124681068208872</v>
       </c>
       <c r="EA7">
-        <f>E16</f>
+        <f t="shared" si="12"/>
         <v>87.937293729372939</v>
       </c>
       <c r="EB7">
-        <f>F16</f>
+        <f t="shared" si="12"/>
         <v>69.407547965422737</v>
       </c>
       <c r="EC7">
-        <f>G16</f>
+        <f t="shared" si="12"/>
         <v>57.146306132303238</v>
       </c>
       <c r="ED7">
-        <f>H16</f>
+        <f t="shared" si="12"/>
         <v>77.608793856346935</v>
       </c>
       <c r="EE7">
-        <f>I16</f>
+        <f t="shared" si="12"/>
         <v>64.685314685314694</v>
       </c>
       <c r="EF7">
-        <f>J16</f>
+        <f t="shared" si="12"/>
         <v>68.488204140587385</v>
       </c>
       <c r="EG7">
-        <f>K16</f>
+        <f t="shared" si="12"/>
         <v>54.056672317752493</v>
       </c>
       <c r="EH7">
-        <f>L16</f>
+        <f t="shared" si="12"/>
         <v>80.947597522183159</v>
       </c>
       <c r="EI7">
-        <f>M16</f>
+        <f t="shared" si="12"/>
         <v>75.94717182497331</v>
       </c>
       <c r="EJ7">
-        <f>N16</f>
+        <f t="shared" si="12"/>
         <v>73.807829181494668</v>
       </c>
       <c r="EK7">
-        <f>O16</f>
+        <f t="shared" si="12"/>
         <v>71.51477641961938</v>
       </c>
     </row>
@@ -10057,227 +10060,227 @@
         <v>79.368932038834956</v>
       </c>
       <c r="P17">
-        <f t="shared" ref="P17:AC20" si="2">B18</f>
+        <f t="shared" ref="P17:AC17" si="13">B18</f>
         <v>97.883149872988994</v>
       </c>
       <c r="Q17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>95.404814004376377</v>
       </c>
       <c r="R17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>95.741556534508078</v>
       </c>
       <c r="S17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>98.551637279596989</v>
       </c>
       <c r="T17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>90.317919075144502</v>
       </c>
       <c r="U17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>86.62109375</v>
       </c>
       <c r="V17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>84.652981427174979</v>
       </c>
       <c r="W17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>86.831275720164612</v>
       </c>
       <c r="X17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>83.515625</v>
       </c>
       <c r="Y17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>91.588785046728972</v>
       </c>
       <c r="Z17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>93.418467583497062</v>
       </c>
       <c r="AA17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>91.471415182755393</v>
       </c>
       <c r="AB17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>94.607843137254903</v>
       </c>
       <c r="AC17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>82.410824108241087</v>
       </c>
       <c r="AD17">
-        <f>B19</f>
+        <f t="shared" ref="AD17:AQ17" si="14">B19</f>
         <v>99.319342030629613</v>
       </c>
       <c r="AE17">
-        <f>C19</f>
+        <f t="shared" si="14"/>
         <v>91.783567134268537</v>
       </c>
       <c r="AF17">
-        <f>D19</f>
+        <f t="shared" si="14"/>
         <v>92.427497314715353</v>
       </c>
       <c r="AG17">
-        <f>E19</f>
+        <f t="shared" si="14"/>
         <v>99.18875067604111</v>
       </c>
       <c r="AH17">
-        <f>F19</f>
+        <f t="shared" si="14"/>
         <v>94.449116904962153</v>
       </c>
       <c r="AI17">
-        <f>G19</f>
+        <f t="shared" si="14"/>
         <v>82.772764561115665</v>
       </c>
       <c r="AJ17">
-        <f>H19</f>
+        <f t="shared" si="14"/>
         <v>93.970893970893982</v>
       </c>
       <c r="AK17">
-        <f>I19</f>
+        <f t="shared" si="14"/>
         <v>90.662139219015287</v>
       </c>
       <c r="AL17">
-        <f>J19</f>
+        <f t="shared" si="14"/>
         <v>91.33720930232559</v>
       </c>
       <c r="AM17">
-        <f>K19</f>
+        <f t="shared" si="14"/>
         <v>87.54480286738351</v>
       </c>
       <c r="AN17">
-        <f>L19</f>
+        <f t="shared" si="14"/>
         <v>94.914089347079027</v>
       </c>
       <c r="AO17">
-        <f>M19</f>
+        <f t="shared" si="14"/>
         <v>94.613887086307585</v>
       </c>
       <c r="AP17">
-        <f>N19</f>
+        <f t="shared" si="14"/>
         <v>94.557823129251702</v>
       </c>
       <c r="AQ17">
-        <f>O19</f>
+        <f t="shared" si="14"/>
         <v>87.887887887887885</v>
       </c>
       <c r="AR17">
-        <f>B20</f>
+        <f t="shared" ref="AR17:BE17" si="15">B20</f>
         <v>97.797989468645284</v>
       </c>
       <c r="AS17">
-        <f>C20</f>
+        <f t="shared" si="15"/>
         <v>86.510263929618773</v>
       </c>
       <c r="AT17">
-        <f>D20</f>
+        <f t="shared" si="15"/>
         <v>92.11667323610564</v>
       </c>
       <c r="AU17">
-        <f>E20</f>
+        <f t="shared" si="15"/>
         <v>99.081836327345314</v>
       </c>
       <c r="AV17">
-        <f>F20</f>
+        <f t="shared" si="15"/>
         <v>99.247091033538666</v>
       </c>
       <c r="AW17">
-        <f>G20</f>
+        <f t="shared" si="15"/>
         <v>91.3630229419703</v>
       </c>
       <c r="AX17">
-        <f>H20</f>
+        <f t="shared" si="15"/>
         <v>95.561797752808985</v>
       </c>
       <c r="AY17">
-        <f>I20</f>
+        <f t="shared" si="15"/>
         <v>95.611285266457685</v>
       </c>
       <c r="AZ17">
-        <f>J20</f>
+        <f t="shared" si="15"/>
         <v>94.908896034297968</v>
       </c>
       <c r="BA17">
-        <f>K20</f>
+        <f t="shared" si="15"/>
         <v>91.323076923076911</v>
       </c>
       <c r="BB17">
-        <f>L20</f>
+        <f t="shared" si="15"/>
         <v>96.561085972850677</v>
       </c>
       <c r="BC17">
-        <f>M20</f>
+        <f t="shared" si="15"/>
         <v>93.110314615690953</v>
       </c>
       <c r="BD17">
-        <f>N20</f>
+        <f t="shared" si="15"/>
         <v>91.814159292035399</v>
       </c>
       <c r="BE17">
-        <f>O20</f>
+        <f t="shared" si="15"/>
         <v>95.556872037914701</v>
       </c>
       <c r="BF17">
-        <f>B21</f>
+        <f t="shared" ref="BF17:BS17" si="16">B21</f>
         <v>97.93256997455471</v>
       </c>
       <c r="BG17">
-        <f>C21</f>
+        <f t="shared" si="16"/>
         <v>96.393301846285965</v>
       </c>
       <c r="BH17">
-        <f>D21</f>
+        <f t="shared" si="16"/>
         <v>97.773654916512058</v>
       </c>
       <c r="BI17">
-        <f>E21</f>
+        <f t="shared" si="16"/>
         <v>98.827930174563591</v>
       </c>
       <c r="BJ17">
-        <f>F21</f>
+        <f t="shared" si="16"/>
         <v>99.785637727759919</v>
       </c>
       <c r="BK17">
-        <f>G21</f>
+        <f t="shared" si="16"/>
         <v>99.07692307692308</v>
       </c>
       <c r="BL17">
-        <f>H21</f>
+        <f t="shared" si="16"/>
         <v>99.281515349444803</v>
       </c>
       <c r="BM17">
-        <f>I21</f>
+        <f t="shared" si="16"/>
         <v>94.547803617571063</v>
       </c>
       <c r="BN17">
-        <f>J21</f>
+        <f t="shared" si="16"/>
         <v>96.202882483370288</v>
       </c>
       <c r="BO17">
-        <f>K21</f>
+        <f t="shared" si="16"/>
         <v>98.928796471329548</v>
       </c>
       <c r="BP17">
-        <f>L21</f>
+        <f t="shared" si="16"/>
         <v>98.839308743874128</v>
       </c>
       <c r="BQ17">
-        <f>M21</f>
+        <f t="shared" si="16"/>
         <v>95.904628330995791</v>
       </c>
       <c r="BR17">
-        <f>N21</f>
+        <f t="shared" si="16"/>
         <v>95.820161573586233</v>
       </c>
       <c r="BS17">
-        <f>O21</f>
+        <f t="shared" si="16"/>
         <v>99.2862509391435</v>
       </c>
     </row>
@@ -10516,507 +10519,507 @@
         <v>96.94288012872083</v>
       </c>
       <c r="P22">
-        <f t="shared" ref="P22:AC22" si="3">B23</f>
+        <f t="shared" ref="P22:AC22" si="17">B23</f>
         <v>99.389567147613761</v>
       </c>
       <c r="Q22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="17"/>
         <v>97.259400892288085</v>
       </c>
       <c r="R22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="17"/>
         <v>92.307692307692307</v>
       </c>
       <c r="S22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="17"/>
         <v>98.447519406007416</v>
       </c>
       <c r="T22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="17"/>
         <v>100</v>
       </c>
       <c r="U22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="17"/>
         <v>97.186147186147181</v>
       </c>
       <c r="V22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="17"/>
         <v>99.255213505461768</v>
       </c>
       <c r="W22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="17"/>
         <v>97.508009967960135</v>
       </c>
       <c r="X22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="17"/>
         <v>98.605986059860598</v>
       </c>
       <c r="Y22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="17"/>
         <v>99.310740953475019</v>
       </c>
       <c r="Z22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="17"/>
         <v>91.2006257332812</v>
       </c>
       <c r="AA22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="17"/>
         <v>97.239263803680984</v>
       </c>
       <c r="AB22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="17"/>
         <v>96.690647482014384</v>
       </c>
       <c r="AC22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="17"/>
         <v>95.177918190887937</v>
       </c>
       <c r="AD22">
-        <f>B24</f>
+        <f t="shared" ref="AD22:AQ22" si="18">B24</f>
         <v>99.496981891348085</v>
       </c>
       <c r="AE22">
-        <f>C24</f>
+        <f t="shared" si="18"/>
         <v>94.136460554370998</v>
       </c>
       <c r="AF22">
-        <f>D24</f>
+        <f t="shared" si="18"/>
         <v>83.687943262411352</v>
       </c>
       <c r="AG22">
-        <f>E24</f>
+        <f t="shared" si="18"/>
         <v>98.550724637681171</v>
       </c>
       <c r="AH22">
-        <f>F24</f>
+        <f t="shared" si="18"/>
         <v>99.368541905855338</v>
       </c>
       <c r="AI22">
-        <f>G24</f>
+        <f t="shared" si="18"/>
         <v>92.648323301805675</v>
       </c>
       <c r="AJ22">
-        <f>H24</f>
+        <f t="shared" si="18"/>
         <v>96.767241379310349</v>
       </c>
       <c r="AK22">
-        <f>I24</f>
+        <f t="shared" si="18"/>
         <v>80.28103044496487</v>
       </c>
       <c r="AL22">
-        <f>J24</f>
+        <f t="shared" si="18"/>
         <v>92.284755870294447</v>
       </c>
       <c r="AM22">
-        <f>K24</f>
+        <f t="shared" si="18"/>
         <v>91.728341314758381</v>
       </c>
       <c r="AN22">
-        <f>L24</f>
+        <f t="shared" si="18"/>
         <v>85.26878526878528</v>
       </c>
       <c r="AO22">
-        <f>M24</f>
+        <f t="shared" si="18"/>
         <v>89.241034195162641</v>
       </c>
       <c r="AP22">
-        <f>N24</f>
+        <f t="shared" si="18"/>
         <v>97.383876134543513</v>
       </c>
       <c r="AQ22">
-        <f>O24</f>
+        <f t="shared" si="18"/>
         <v>95.115298785023555</v>
       </c>
       <c r="AR22">
-        <f>B25</f>
+        <f t="shared" ref="AR22:BE22" si="19">B25</f>
         <v>96.785361028684463</v>
       </c>
       <c r="AS22">
-        <f>C25</f>
+        <f t="shared" si="19"/>
         <v>97.942386831275712</v>
       </c>
       <c r="AT22">
-        <f>D25</f>
+        <f t="shared" si="19"/>
         <v>75.544794188861985</v>
       </c>
       <c r="AU22">
-        <f>E25</f>
+        <f t="shared" si="19"/>
         <v>99.072593540134307</v>
       </c>
       <c r="AV22">
-        <f>F25</f>
+        <f t="shared" si="19"/>
         <v>98.661800486618006</v>
       </c>
       <c r="AW22">
-        <f>G25</f>
+        <f t="shared" si="19"/>
         <v>91.043956043956044</v>
       </c>
       <c r="AX22">
-        <f>H25</f>
+        <f t="shared" si="19"/>
         <v>91.260504201680675</v>
       </c>
       <c r="AY22">
-        <f>I25</f>
+        <f t="shared" si="19"/>
         <v>73.449275362318843</v>
       </c>
       <c r="AZ22">
-        <f>J25</f>
+        <f t="shared" si="19"/>
         <v>96.394849785407715</v>
       </c>
       <c r="BA22">
-        <f>K25</f>
+        <f t="shared" si="19"/>
         <v>93.336145086461414</v>
       </c>
       <c r="BB22">
-        <f>L25</f>
+        <f t="shared" si="19"/>
         <v>94.31448992852502</v>
       </c>
       <c r="BC22">
-        <f>M25</f>
+        <f t="shared" si="19"/>
         <v>94.021164021164012</v>
       </c>
       <c r="BD22">
-        <f>N25</f>
+        <f t="shared" si="19"/>
         <v>96.835788325150034</v>
       </c>
       <c r="BE22">
-        <f>O25</f>
+        <f t="shared" si="19"/>
         <v>98.950949815707403</v>
       </c>
       <c r="BF22">
-        <f>B26</f>
+        <f t="shared" ref="BF22:BS22" si="20">B26</f>
         <v>99.226569608735218</v>
       </c>
       <c r="BG22">
-        <f>C26</f>
+        <f t="shared" si="20"/>
         <v>97.061838059446544</v>
       </c>
       <c r="BH22">
-        <f>D26</f>
+        <f t="shared" si="20"/>
         <v>93.609335926646281</v>
       </c>
       <c r="BI22">
-        <f>E26</f>
+        <f t="shared" si="20"/>
         <v>99.302505812451557</v>
       </c>
       <c r="BJ22">
-        <f>F26</f>
+        <f t="shared" si="20"/>
         <v>99.085794655414901</v>
       </c>
       <c r="BK22">
-        <f>G26</f>
+        <f t="shared" si="20"/>
         <v>97.882352941176478</v>
       </c>
       <c r="BL22">
-        <f>H26</f>
+        <f t="shared" si="20"/>
         <v>94.498869630746043</v>
       </c>
       <c r="BM22">
-        <f>I26</f>
+        <f t="shared" si="20"/>
         <v>83.078563810878066</v>
       </c>
       <c r="BN22">
-        <f>J26</f>
+        <f t="shared" si="20"/>
         <v>99.930795847750858</v>
       </c>
       <c r="BO22">
-        <f>K26</f>
+        <f t="shared" si="20"/>
         <v>96.576839038601605</v>
       </c>
       <c r="BP22">
-        <f>L26</f>
+        <f t="shared" si="20"/>
         <v>92.448835568101629</v>
       </c>
       <c r="BQ22">
-        <f>M26</f>
+        <f t="shared" si="20"/>
         <v>93.985822090098324</v>
       </c>
       <c r="BR22">
-        <f>N26</f>
+        <f t="shared" si="20"/>
         <v>94.245524296675185</v>
       </c>
       <c r="BS22">
-        <f>O26</f>
+        <f t="shared" si="20"/>
         <v>98.645353562720132</v>
       </c>
       <c r="BT22">
-        <f>B27</f>
+        <f t="shared" ref="BT22:CG22" si="21">B27</f>
         <v>92.458866544789771</v>
       </c>
       <c r="BU22">
-        <f>C27</f>
+        <f t="shared" si="21"/>
         <v>97.424892703862668</v>
       </c>
       <c r="BV22">
-        <f>D27</f>
+        <f t="shared" si="21"/>
         <v>94.88054607508532</v>
       </c>
       <c r="BW22">
-        <f>E27</f>
+        <f t="shared" si="21"/>
         <v>99.198025909932142</v>
       </c>
       <c r="BX22">
-        <f>F27</f>
+        <f t="shared" si="21"/>
         <v>99.56766104626027</v>
       </c>
       <c r="BY22">
-        <f>G27</f>
+        <f t="shared" si="21"/>
         <v>93.315301391035547</v>
       </c>
       <c r="BZ22">
-        <f>H27</f>
+        <f t="shared" si="21"/>
         <v>97.635494155154092</v>
       </c>
       <c r="CA22">
-        <f>I27</f>
+        <f t="shared" si="21"/>
         <v>89.321511179645341</v>
       </c>
       <c r="CB22">
-        <f>J27</f>
+        <f t="shared" si="21"/>
         <v>100</v>
       </c>
       <c r="CC22">
-        <f>K27</f>
+        <f t="shared" si="21"/>
         <v>94.286626236833698</v>
       </c>
       <c r="CD22">
-        <f>L27</f>
+        <f t="shared" si="21"/>
         <v>89.298984394352246</v>
       </c>
       <c r="CE22">
-        <f>M27</f>
+        <f t="shared" si="21"/>
         <v>93.066710375348308</v>
       </c>
       <c r="CF22">
-        <f>N27</f>
+        <f t="shared" si="21"/>
         <v>96.828273674671493</v>
       </c>
       <c r="CG22">
-        <f>O27</f>
+        <f t="shared" si="21"/>
         <v>99.066546221017774</v>
       </c>
       <c r="CH22">
-        <f>B28</f>
+        <f t="shared" ref="CH22:CU22" si="22">B28</f>
         <v>95.271077143539529</v>
       </c>
       <c r="CI22">
-        <f>C28</f>
+        <f t="shared" si="22"/>
         <v>97.340854149879135</v>
       </c>
       <c r="CJ22">
-        <f>D28</f>
+        <f t="shared" si="22"/>
         <v>80.561306648263169</v>
       </c>
       <c r="CK22">
-        <f>E28</f>
+        <f t="shared" si="22"/>
         <v>99.161073825503351</v>
       </c>
       <c r="CL22">
-        <f>F28</f>
+        <f t="shared" si="22"/>
         <v>99.537037037037038</v>
       </c>
       <c r="CM22">
-        <f>G28</f>
+        <f t="shared" si="22"/>
         <v>93.06803594351733</v>
       </c>
       <c r="CN22">
-        <f>H28</f>
+        <f t="shared" si="22"/>
         <v>98.376796168174565</v>
       </c>
       <c r="CO22">
-        <f>I28</f>
+        <f t="shared" si="22"/>
         <v>78.671551449506211</v>
       </c>
       <c r="CP22">
-        <f>J28</f>
+        <f t="shared" si="22"/>
         <v>95.372866127583109</v>
       </c>
       <c r="CQ22">
-        <f>K28</f>
+        <f t="shared" si="22"/>
         <v>99.154616240266975</v>
       </c>
       <c r="CR22">
-        <f>L28</f>
+        <f t="shared" si="22"/>
         <v>84.081463009143803</v>
       </c>
       <c r="CS22">
-        <f>M28</f>
+        <f t="shared" si="22"/>
         <v>87.363219202259089</v>
       </c>
       <c r="CT22">
-        <f>N28</f>
+        <f t="shared" si="22"/>
         <v>96.294100207530391</v>
       </c>
       <c r="CU22">
-        <f>O28</f>
+        <f t="shared" si="22"/>
         <v>83.725864629747505</v>
       </c>
       <c r="CV22">
-        <f>B29</f>
+        <f t="shared" ref="CV22:DI22" si="23">B29</f>
         <v>95.195086705202314</v>
       </c>
       <c r="CW22">
-        <f>C29</f>
+        <f t="shared" si="23"/>
         <v>97.453416149068332</v>
       </c>
       <c r="CX22">
-        <f>D29</f>
+        <f t="shared" si="23"/>
         <v>83.143065338838966</v>
       </c>
       <c r="CY22">
-        <f>E29</f>
+        <f t="shared" si="23"/>
         <v>99.140546006066728</v>
       </c>
       <c r="CZ22">
-        <f>F29</f>
+        <f t="shared" si="23"/>
         <v>99.934980494148235</v>
       </c>
       <c r="DA22">
-        <f>G29</f>
+        <f t="shared" si="23"/>
         <v>93.836598184424275</v>
       </c>
       <c r="DB22">
-        <f>H29</f>
+        <f t="shared" si="23"/>
         <v>97.071531445031198</v>
       </c>
       <c r="DC22">
-        <f>I29</f>
+        <f t="shared" si="23"/>
         <v>80.186871106851939</v>
       </c>
       <c r="DD22">
-        <f>J29</f>
+        <f t="shared" si="23"/>
         <v>94.844579226686889</v>
       </c>
       <c r="DE22">
-        <f>K29</f>
+        <f t="shared" si="23"/>
         <v>97.33367848822158</v>
       </c>
       <c r="DF22">
-        <f>L29</f>
+        <f t="shared" si="23"/>
         <v>93.279075872932523</v>
       </c>
       <c r="DG22">
-        <f>M29</f>
+        <f t="shared" si="23"/>
         <v>89.246646026831783</v>
       </c>
       <c r="DH22">
-        <f>N29</f>
+        <f t="shared" si="23"/>
         <v>86.880244088482073</v>
       </c>
       <c r="DI22">
-        <f>O29</f>
+        <f t="shared" si="23"/>
         <v>84.144427001569852</v>
       </c>
       <c r="DJ22">
-        <f>B30</f>
+        <f t="shared" ref="DJ22:DW22" si="24">B30</f>
         <v>97.468599033816432</v>
       </c>
       <c r="DK22">
-        <f>C30</f>
+        <f t="shared" si="24"/>
         <v>95.611171563293439</v>
       </c>
       <c r="DL22">
-        <f>D30</f>
+        <f t="shared" si="24"/>
         <v>95.571843029470145</v>
       </c>
       <c r="DM22">
-        <f>E30</f>
+        <f t="shared" si="24"/>
         <v>97.998137802607076</v>
       </c>
       <c r="DN22">
-        <f>F30</f>
+        <f t="shared" si="24"/>
         <v>99.977462249267518</v>
       </c>
       <c r="DO22">
-        <f>G30</f>
+        <f t="shared" si="24"/>
         <v>93.238095238095241</v>
       </c>
       <c r="DP22">
-        <f>H30</f>
+        <f t="shared" si="24"/>
         <v>97.829107328933659</v>
       </c>
       <c r="DQ22">
-        <f>I30</f>
+        <f t="shared" si="24"/>
         <v>69.28948254574027</v>
       </c>
       <c r="DR22">
-        <f>J30</f>
+        <f t="shared" si="24"/>
         <v>94.756097560975604</v>
       </c>
       <c r="DS22">
-        <f>K30</f>
+        <f t="shared" si="24"/>
         <v>97.622252131000451</v>
       </c>
       <c r="DT22">
-        <f>L30</f>
+        <f t="shared" si="24"/>
         <v>89.329475833900617</v>
       </c>
       <c r="DU22">
-        <f>M30</f>
+        <f t="shared" si="24"/>
         <v>84.500546182789165</v>
       </c>
       <c r="DV22">
-        <f>N30</f>
+        <f t="shared" si="24"/>
         <v>93.629782833505686</v>
       </c>
       <c r="DW22">
-        <f>O30</f>
+        <f t="shared" si="24"/>
         <v>91.34732360097324</v>
       </c>
       <c r="DX22">
-        <f>B31</f>
+        <f t="shared" ref="DX22:EK22" si="25">B31</f>
         <v>96.62239089184061</v>
       </c>
       <c r="DY22">
-        <f>C31</f>
+        <f t="shared" si="25"/>
         <v>95.492756215346091</v>
       </c>
       <c r="DZ22">
-        <f>D31</f>
+        <f t="shared" si="25"/>
         <v>95.018599385411619</v>
       </c>
       <c r="EA22">
-        <f>E31</f>
+        <f t="shared" si="25"/>
         <v>99.264345267287894</v>
       </c>
       <c r="EB22">
-        <f>F31</f>
+        <f t="shared" si="25"/>
         <v>99.916857202244856</v>
       </c>
       <c r="EC22">
-        <f>G31</f>
+        <f t="shared" si="25"/>
         <v>98.06531496672342</v>
       </c>
       <c r="ED22">
-        <f>H31</f>
+        <f t="shared" si="25"/>
         <v>97.871905054225493</v>
       </c>
       <c r="EE22">
-        <f>I31</f>
+        <f t="shared" si="25"/>
         <v>68.445802962614621</v>
       </c>
       <c r="EF22">
-        <f>J31</f>
+        <f t="shared" si="25"/>
         <v>97.350993377483448</v>
       </c>
       <c r="EG22">
-        <f>K31</f>
+        <f t="shared" si="25"/>
         <v>96.780045351473916</v>
       </c>
       <c r="EH22">
-        <f>L31</f>
+        <f t="shared" si="25"/>
         <v>88.312428734321543</v>
       </c>
       <c r="EI22">
-        <f>M31</f>
+        <f t="shared" si="25"/>
         <v>83.899260744267636</v>
       </c>
       <c r="EJ22">
-        <f>N31</f>
+        <f t="shared" si="25"/>
         <v>94.786550812240264</v>
       </c>
       <c r="EK22">
-        <f>O31</f>
+        <f t="shared" si="25"/>
         <v>90.727478326422911</v>
       </c>
     </row>
@@ -11810,18 +11813,18 @@
       <c r="U38" t="s">
         <v>53</v>
       </c>
-      <c r="Z38" s="15"/>
-      <c r="AA38" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="AB38" s="15" t="s">
+      <c r="Z38" s="14"/>
+      <c r="AA38" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="AB38" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="AD38" s="15"/>
-      <c r="AE38" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="AF38" s="15" t="s">
+      <c r="AD38" s="14"/>
+      <c r="AE38" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="AF38" s="14" t="s">
         <v>91</v>
       </c>
     </row>
@@ -11890,22 +11893,22 @@
         <f>CORREL(B7:O16,B76:O85)</f>
         <v>-0.18559734906433362</v>
       </c>
-      <c r="Z39" s="13" t="s">
+      <c r="Z39" t="s">
         <v>92</v>
       </c>
-      <c r="AA39" s="13">
+      <c r="AA39">
         <v>57.125030964402498</v>
       </c>
-      <c r="AB39" s="13">
+      <c r="AB39">
         <v>71.828083473180911</v>
       </c>
-      <c r="AD39" s="13" t="s">
+      <c r="AD39" t="s">
         <v>92</v>
       </c>
-      <c r="AE39" s="13">
+      <c r="AE39">
         <v>93.065359379017664</v>
       </c>
-      <c r="AF39" s="13">
+      <c r="AF39">
         <v>93.795035261748964</v>
       </c>
     </row>
@@ -11974,22 +11977,22 @@
         <f>CORREL(B22:O31,B91:O100)</f>
         <v>0.26017738296906157</v>
       </c>
-      <c r="Z40" s="13" t="s">
+      <c r="Z40" t="s">
         <v>93</v>
       </c>
-      <c r="AA40" s="13">
+      <c r="AA40">
         <v>45.946636880923862</v>
       </c>
-      <c r="AB40" s="13">
+      <c r="AB40">
         <v>85.802252818166153</v>
       </c>
-      <c r="AD40" s="13" t="s">
+      <c r="AD40" t="s">
         <v>93</v>
       </c>
-      <c r="AE40" s="13">
+      <c r="AE40">
         <v>26.792201341132031</v>
       </c>
-      <c r="AF40" s="13">
+      <c r="AF40">
         <v>41.504153733123609</v>
       </c>
     </row>
@@ -12039,22 +12042,22 @@
       <c r="O41" s="3">
         <v>70</v>
       </c>
-      <c r="Z41" s="13" t="s">
+      <c r="Z41" t="s">
         <v>94</v>
       </c>
-      <c r="AA41" s="13">
-        <v>70</v>
-      </c>
-      <c r="AB41" s="13">
+      <c r="AA41">
+        <v>70</v>
+      </c>
+      <c r="AB41">
         <v>140</v>
       </c>
-      <c r="AD41" s="13" t="s">
+      <c r="AD41" t="s">
         <v>94</v>
       </c>
-      <c r="AE41" s="13">
-        <v>70</v>
-      </c>
-      <c r="AF41" s="13">
+      <c r="AE41">
+        <v>70</v>
+      </c>
+      <c r="AF41">
         <v>140</v>
       </c>
     </row>
@@ -12116,20 +12119,18 @@
       <c r="W42" t="s">
         <v>83</v>
       </c>
-      <c r="Z42" s="13" t="s">
+      <c r="Z42" t="s">
         <v>95</v>
       </c>
-      <c r="AA42" s="13">
+      <c r="AA42">
         <v>72.58091868513867</v>
       </c>
-      <c r="AB42" s="13"/>
-      <c r="AD42" s="13" t="s">
+      <c r="AD42" t="s">
         <v>95</v>
       </c>
-      <c r="AE42" s="13">
+      <c r="AE42">
         <v>36.623746449241786</v>
       </c>
-      <c r="AF42" s="13"/>
     </row>
     <row r="43" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A43" s="1" t="s">
@@ -12201,20 +12202,18 @@
       <c r="X43" t="s">
         <v>71</v>
       </c>
-      <c r="Z43" s="13" t="s">
+      <c r="Z43" t="s">
         <v>96</v>
       </c>
-      <c r="AA43" s="13">
+      <c r="AA43">
         <v>0</v>
       </c>
-      <c r="AB43" s="13"/>
-      <c r="AD43" s="13" t="s">
+      <c r="AD43" t="s">
         <v>96</v>
       </c>
-      <c r="AE43" s="13">
+      <c r="AE43">
         <v>0</v>
       </c>
-      <c r="AF43" s="13"/>
     </row>
     <row r="44" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A44" s="1" t="s">
@@ -12294,20 +12293,18 @@
         <f>TDIST(ABS(W44),138,2)</f>
         <v>1.6129081532651016E-22</v>
       </c>
-      <c r="Z44" s="13" t="s">
+      <c r="Z44" t="s">
         <v>97</v>
       </c>
-      <c r="AA44" s="13">
+      <c r="AA44">
         <v>208</v>
       </c>
-      <c r="AB44" s="13"/>
-      <c r="AD44" s="13" t="s">
+      <c r="AD44" t="s">
         <v>97</v>
       </c>
-      <c r="AE44" s="13">
+      <c r="AE44">
         <v>208</v>
       </c>
-      <c r="AF44" s="13"/>
     </row>
     <row r="45" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A45" s="1" t="s">
@@ -12367,20 +12364,18 @@
       <c r="W45" t="s">
         <v>87</v>
       </c>
-      <c r="Z45" s="13" t="s">
+      <c r="Z45" t="s">
         <v>98</v>
       </c>
-      <c r="AA45" s="13">
+      <c r="AA45">
         <v>-11.789616226169942</v>
       </c>
-      <c r="AB45" s="13"/>
-      <c r="AD45" s="13" t="s">
+      <c r="AD45" t="s">
         <v>98</v>
       </c>
-      <c r="AE45" s="13">
+      <c r="AE45">
         <v>-0.82366762943777405</v>
       </c>
-      <c r="AF45" s="13"/>
     </row>
     <row r="46" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A46" s="1" t="s">
@@ -12452,20 +12447,18 @@
       <c r="X46" t="s">
         <v>71</v>
       </c>
-      <c r="Z46" s="13" t="s">
+      <c r="Z46" t="s">
         <v>99</v>
       </c>
-      <c r="AA46" s="13">
+      <c r="AA46">
         <v>3.3261512981481366E-25</v>
       </c>
-      <c r="AB46" s="13"/>
-      <c r="AD46" s="13" t="s">
+      <c r="AD46" t="s">
         <v>99</v>
       </c>
-      <c r="AE46" s="13">
+      <c r="AE46">
         <v>0.20553592521355318</v>
       </c>
-      <c r="AF46" s="13"/>
     </row>
     <row r="47" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A47" s="1" t="s">
@@ -12545,20 +12538,18 @@
         <f>TDIST(ABS(W47),138,2)</f>
         <v>1.9059631020834013E-3</v>
       </c>
-      <c r="Z47" s="13" t="s">
+      <c r="Z47" t="s">
         <v>100</v>
       </c>
-      <c r="AA47" s="13">
+      <c r="AA47">
         <v>1.6522123760661407</v>
       </c>
-      <c r="AB47" s="13"/>
-      <c r="AD47" s="13" t="s">
+      <c r="AD47" t="s">
         <v>100</v>
       </c>
-      <c r="AE47" s="13">
+      <c r="AE47">
         <v>1.6522123760661407</v>
       </c>
-      <c r="AF47" s="13"/>
     </row>
     <row r="48" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A48" s="1" t="s">
@@ -12606,20 +12597,18 @@
       <c r="O48" s="3">
         <v>70</v>
       </c>
-      <c r="Z48" s="13" t="s">
+      <c r="Z48" t="s">
         <v>101</v>
       </c>
-      <c r="AA48" s="13">
+      <c r="AA48">
         <v>6.6523025962962732E-25</v>
       </c>
-      <c r="AB48" s="13"/>
-      <c r="AD48" s="13" t="s">
+      <c r="AD48" t="s">
         <v>101</v>
       </c>
-      <c r="AE48" s="13">
+      <c r="AE48">
         <v>0.41107185042710637</v>
       </c>
-      <c r="AF48" s="13"/>
     </row>
     <row r="49" spans="1:32" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
@@ -12667,20 +12656,20 @@
       <c r="O49" s="3">
         <v>80</v>
       </c>
-      <c r="Z49" s="14" t="s">
+      <c r="Z49" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="AA49" s="14">
+      <c r="AA49" s="13">
         <v>1.9714346585202402</v>
       </c>
-      <c r="AB49" s="14"/>
-      <c r="AD49" s="14" t="s">
+      <c r="AB49" s="13"/>
+      <c r="AD49" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="AE49" s="14">
+      <c r="AE49" s="13">
         <v>1.9714346585202402</v>
       </c>
-      <c r="AF49" s="14"/>
+      <c r="AF49" s="13"/>
     </row>
     <row r="50" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A50" s="1" t="s">
@@ -13392,59 +13381,59 @@
         <v>45</v>
       </c>
       <c r="B65">
-        <f t="shared" ref="B65:O65" si="4">CORREL(B2:B16,B35:B49)</f>
+        <f t="shared" ref="B65:O65" si="26">CORREL(B2:B16,B35:B49)</f>
         <v>-0.56504544204543972</v>
       </c>
       <c r="C65">
-        <f t="shared" si="4"/>
+        <f t="shared" si="26"/>
         <v>-0.82493213005525146</v>
       </c>
       <c r="D65">
-        <f t="shared" si="4"/>
+        <f t="shared" si="26"/>
         <v>-0.2407126842195669</v>
       </c>
       <c r="E65">
-        <f t="shared" si="4"/>
+        <f t="shared" si="26"/>
         <v>-0.80841982676608382</v>
       </c>
       <c r="F65">
-        <f t="shared" si="4"/>
+        <f t="shared" si="26"/>
         <v>-0.68631232207237458</v>
       </c>
       <c r="G65">
-        <f t="shared" si="4"/>
+        <f t="shared" si="26"/>
         <v>-0.25935671165514851</v>
       </c>
       <c r="H65">
-        <f t="shared" si="4"/>
+        <f t="shared" si="26"/>
         <v>-0.85334637510336231</v>
       </c>
       <c r="I65">
-        <f t="shared" si="4"/>
+        <f t="shared" si="26"/>
         <v>-0.32080152283566665</v>
       </c>
       <c r="J65">
-        <f t="shared" si="4"/>
+        <f t="shared" si="26"/>
         <v>-0.18912015699088316</v>
       </c>
       <c r="K65">
-        <f t="shared" si="4"/>
+        <f t="shared" si="26"/>
         <v>-0.50663260426742696</v>
       </c>
       <c r="L65">
-        <f t="shared" si="4"/>
+        <f t="shared" si="26"/>
         <v>-0.62724596198558125</v>
       </c>
       <c r="M65">
-        <f t="shared" si="4"/>
+        <f t="shared" si="26"/>
         <v>-0.69809531504177302</v>
       </c>
       <c r="N65">
-        <f t="shared" si="4"/>
+        <f t="shared" si="26"/>
         <v>-0.7395285325756763</v>
       </c>
       <c r="O65">
-        <f t="shared" si="4"/>
+        <f t="shared" si="26"/>
         <v>-0.81591723818637685</v>
       </c>
     </row>
@@ -13453,59 +13442,59 @@
         <v>46</v>
       </c>
       <c r="B66">
-        <f t="shared" ref="B66:O66" si="5">CORREL(B17:B31,B50:B64)</f>
+        <f t="shared" ref="B66:O66" si="27">CORREL(B17:B31,B50:B64)</f>
         <v>3.0776415721725372E-2</v>
       </c>
       <c r="C66">
-        <f t="shared" si="5"/>
+        <f t="shared" si="27"/>
         <v>-0.48155398752701967</v>
       </c>
       <c r="D66">
-        <f t="shared" si="5"/>
+        <f t="shared" si="27"/>
         <v>-2.337077824673504E-2</v>
       </c>
       <c r="E66">
-        <f t="shared" si="5"/>
+        <f t="shared" si="27"/>
         <v>-0.18830054036964494</v>
       </c>
       <c r="F66">
-        <f t="shared" si="5"/>
+        <f t="shared" si="27"/>
         <v>-0.90831980709472138</v>
       </c>
       <c r="G66">
-        <f t="shared" si="5"/>
+        <f t="shared" si="27"/>
         <v>-0.53909717983352579</v>
       </c>
       <c r="H66">
-        <f t="shared" si="5"/>
+        <f t="shared" si="27"/>
         <v>-0.6060956137944884</v>
       </c>
       <c r="I66">
-        <f t="shared" si="5"/>
+        <f t="shared" si="27"/>
         <v>0.66238519721888711</v>
       </c>
       <c r="J66">
-        <f t="shared" si="5"/>
+        <f t="shared" si="27"/>
         <v>0.17353942528110636</v>
       </c>
       <c r="K66">
-        <f t="shared" si="5"/>
+        <f t="shared" si="27"/>
         <v>-0.69423863231510952</v>
       </c>
       <c r="L66">
-        <f t="shared" si="5"/>
+        <f t="shared" si="27"/>
         <v>0.5793544748942967</v>
       </c>
       <c r="M66">
-        <f t="shared" si="5"/>
+        <f t="shared" si="27"/>
         <v>0.26755115330645768</v>
       </c>
       <c r="N66">
-        <f t="shared" si="5"/>
+        <f t="shared" si="27"/>
         <v>-0.10781653460944145</v>
       </c>
       <c r="O66">
-        <f t="shared" si="5"/>
+        <f t="shared" si="27"/>
         <v>-0.22460436330716477</v>
       </c>
     </row>
@@ -14976,59 +14965,59 @@
         <v>45</v>
       </c>
       <c r="B101">
-        <f t="shared" ref="B101:O101" si="6">CORREL(B2:B16,B71:B85)</f>
+        <f t="shared" ref="B101:O101" si="28">CORREL(B2:B16,B71:B85)</f>
         <v>-0.28886303083709708</v>
       </c>
       <c r="C101">
-        <f t="shared" si="6"/>
+        <f t="shared" si="28"/>
         <v>-0.85797551187640486</v>
       </c>
       <c r="D101">
-        <f t="shared" si="6"/>
+        <f t="shared" si="28"/>
         <v>-1.1425535196170244E-2</v>
       </c>
       <c r="E101">
-        <f t="shared" si="6"/>
+        <f t="shared" si="28"/>
         <v>-0.87323663628641257</v>
       </c>
       <c r="F101">
-        <f t="shared" si="6"/>
+        <f t="shared" si="28"/>
         <v>-0.67599917506239837</v>
       </c>
       <c r="G101">
-        <f t="shared" si="6"/>
+        <f t="shared" si="28"/>
         <v>-0.46887447462134724</v>
       </c>
       <c r="H101">
-        <f t="shared" si="6"/>
+        <f t="shared" si="28"/>
         <v>-0.8925829884662998</v>
       </c>
       <c r="I101">
-        <f t="shared" si="6"/>
+        <f t="shared" si="28"/>
         <v>-0.37883379015325941</v>
       </c>
       <c r="J101">
-        <f t="shared" si="6"/>
+        <f t="shared" si="28"/>
         <v>-0.15113842277320849</v>
       </c>
       <c r="K101">
-        <f t="shared" si="6"/>
+        <f t="shared" si="28"/>
         <v>-0.59049275217685382</v>
       </c>
       <c r="L101">
-        <f t="shared" si="6"/>
+        <f t="shared" si="28"/>
         <v>-0.55350294297705693</v>
       </c>
       <c r="M101">
-        <f t="shared" si="6"/>
+        <f t="shared" si="28"/>
         <v>-0.80099565740050671</v>
       </c>
       <c r="N101">
-        <f t="shared" si="6"/>
+        <f t="shared" si="28"/>
         <v>-0.67281638990405257</v>
       </c>
       <c r="O101">
-        <f t="shared" si="6"/>
+        <f t="shared" si="28"/>
         <v>-0.77742644233698843</v>
       </c>
     </row>
@@ -15037,59 +15026,59 @@
         <v>46</v>
       </c>
       <c r="B102">
-        <f t="shared" ref="B102:O102" si="7">CORREL(B50:B64,B86:B100)</f>
+        <f t="shared" ref="B102:O102" si="29">CORREL(B50:B64,B86:B100)</f>
         <v>0.49076285018167559</v>
       </c>
       <c r="C102">
-        <f t="shared" si="7"/>
+        <f t="shared" si="29"/>
         <v>0.93039497166541207</v>
       </c>
       <c r="D102">
-        <f t="shared" si="7"/>
+        <f t="shared" si="29"/>
         <v>0.21283800174212827</v>
       </c>
       <c r="E102">
-        <f t="shared" si="7"/>
+        <f t="shared" si="29"/>
         <v>0.60779881578965012</v>
       </c>
       <c r="F102">
-        <f t="shared" si="7"/>
+        <f t="shared" si="29"/>
         <v>0.85403809305722755</v>
       </c>
       <c r="G102">
-        <f t="shared" si="7"/>
+        <f t="shared" si="29"/>
         <v>0.81314037270029305</v>
       </c>
       <c r="H102">
-        <f t="shared" si="7"/>
+        <f t="shared" si="29"/>
         <v>0.8835086722015526</v>
       </c>
       <c r="I102">
-        <f t="shared" si="7"/>
+        <f t="shared" si="29"/>
         <v>0.70528727206928143</v>
       </c>
       <c r="J102">
-        <f t="shared" si="7"/>
+        <f t="shared" si="29"/>
         <v>0.22876147129340274</v>
       </c>
       <c r="K102">
-        <f t="shared" si="7"/>
+        <f t="shared" si="29"/>
         <v>0.66719860802097231</v>
       </c>
       <c r="L102">
-        <f t="shared" si="7"/>
+        <f t="shared" si="29"/>
         <v>0.83676119973999574</v>
       </c>
       <c r="M102">
-        <f t="shared" si="7"/>
+        <f t="shared" si="29"/>
         <v>0.70241057693068665</v>
       </c>
       <c r="N102">
-        <f t="shared" si="7"/>
+        <f t="shared" si="29"/>
         <v>0.81954603988674635</v>
       </c>
       <c r="O102">
-        <f t="shared" si="7"/>
+        <f t="shared" si="29"/>
         <v>0.9173480683188231</v>
       </c>
     </row>

--- a/kaiseki/around_150.xlsx
+++ b/kaiseki/around_150.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6048939b20a31529/ドキュメント/b4_analysis/kaiseki/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="43" documentId="13_ncr:1_{043469B7-2F82-4AE7-B12F-86246444AF04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{69B7E352-1E0B-40A8-A249-81941C52B56B}"/>
+  <xr:revisionPtr revIDLastSave="63" documentId="13_ncr:1_{043469B7-2F82-4AE7-B12F-86246444AF04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A32BE9C2-F864-4906-831F-FD80380319B0}"/>
   <bookViews>
-    <workbookView xWindow="5160" yWindow="480" windowWidth="17805" windowHeight="13575" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="17805" windowHeight="13575" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="103">
   <si>
     <t>imahashi</t>
   </si>
@@ -858,8 +858,44 @@
           <c:invertIfNegative val="0"/>
           <c:errBars>
             <c:errBarType val="both"/>
-            <c:errValType val="stdErr"/>
+            <c:errValType val="cust"/>
             <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Sheet1!$Y$21:$AB$21</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>11.27265603154961</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>7.3156845270282087</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Sheet1!$Y$21:$AB$21</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>11.27265603154961</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>7.3156845270282087</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
             <c:spPr>
               <a:noFill/>
               <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -944,8 +980,50 @@
           <c:invertIfNegative val="0"/>
           <c:errBars>
             <c:errBarType val="both"/>
-            <c:errValType val="stdErr"/>
+            <c:errValType val="cust"/>
             <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Sheet1!$Y$22:$AB$22</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>3.8487441256834605</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>14.066929074685909</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>3.7846439991844072</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>15.329211005650011</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Sheet1!$Y$22:$AB$22</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>3.8487441256834605</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>14.066929074685909</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>3.7846439991844072</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>15.329211005650011</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
             <c:spPr>
               <a:noFill/>
               <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -1033,8 +1111,50 @@
           <c:invertIfNegative val="0"/>
           <c:errBars>
             <c:errBarType val="both"/>
-            <c:errValType val="stdErr"/>
+            <c:errValType val="cust"/>
             <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Sheet1!$Y$23:$AB$23</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>6.4827177565189773</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>8.0704916608815527</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>4.807892308708376</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>12.24583579066759</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Sheet1!$Y$23:$AB$23</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>6.4827177565189773</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>8.0704916608815527</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>4.807892308708376</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>12.24583579066759</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
             <c:spPr>
               <a:noFill/>
               <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -1122,8 +1242,50 @@
           <c:invertIfNegative val="0"/>
           <c:errBars>
             <c:errBarType val="both"/>
-            <c:errValType val="stdErr"/>
+            <c:errValType val="cust"/>
             <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Sheet1!$Y$24:$AB$24</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>6.7883063284608385</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>16.923444609752828</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>10.205560786875287</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>14.084082935128158</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Sheet1!$Y$24:$AB$24</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>6.7883063284608385</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>16.923444609752828</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>10.205560786875287</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>14.084082935128158</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
             <c:spPr>
               <a:noFill/>
               <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -1253,6 +1415,7 @@
         <c:axId val="680051199"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="120"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1309,6 +1472,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="7.2222222222222215E-2"/>
+              <c:y val="0"/>
+            </c:manualLayout>
+          </c:layout>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1429,12 +1600,7 @@
       <a:schemeClr val="bg1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
+      <a:noFill/>
       <a:round/>
     </a:ln>
     <a:effectLst/>
@@ -1504,8 +1670,44 @@
           <c:invertIfNegative val="0"/>
           <c:errBars>
             <c:errBarType val="both"/>
-            <c:errValType val="stdErr"/>
+            <c:errValType val="cust"/>
             <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Sheet1!$Y$30:$AB$30</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="1">
+                    <c:v>33.325307875755684</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>45.983397387919346</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Sheet1!$Y$30:$AB$30</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="1">
+                    <c:v>33.325307875755684</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>45.983397387919346</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
             <c:spPr>
               <a:noFill/>
               <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -1590,8 +1792,50 @@
           <c:invertIfNegative val="0"/>
           <c:errBars>
             <c:errBarType val="both"/>
-            <c:errValType val="stdErr"/>
+            <c:errValType val="cust"/>
             <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Sheet1!$Y$31:$AB$31</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>1.7841807774523428</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>18.750454978102237</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>39.335885402793899</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>22.670297041591322</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Sheet1!$Y$31:$AB$31</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>1.7841807774523428</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>18.750454978102237</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>39.335885402793899</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>22.670297041591322</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
             <c:spPr>
               <a:noFill/>
               <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -1679,8 +1923,50 @@
           <c:invertIfNegative val="0"/>
           <c:errBars>
             <c:errBarType val="both"/>
-            <c:errValType val="stdErr"/>
+            <c:errValType val="cust"/>
             <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Sheet1!$Y$32:$AB$32</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>32.084495877247598</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>17.803329804026692</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>27.720978181675026</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>15.434144088897687</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Sheet1!$Y$32:$AB$32</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>32.084495877247598</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>17.803329804026692</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>27.720978181675026</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>15.434144088897687</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
             <c:spPr>
               <a:noFill/>
               <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -1768,8 +2054,50 @@
           <c:invertIfNegative val="0"/>
           <c:errBars>
             <c:errBarType val="both"/>
-            <c:errValType val="stdErr"/>
+            <c:errValType val="cust"/>
             <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Sheet1!$Y$33:$AB$33</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>21.118756348980902</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>4.8748297904466318</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>20.103120490215048</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>13.839091539823148</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Sheet1!$Y$33:$AB$33</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>21.118756348980902</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>4.8748297904466318</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>20.103120490215048</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>13.839091539823148</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
             <c:spPr>
               <a:noFill/>
               <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -1857,8 +2185,50 @@
           <c:invertIfNegative val="0"/>
           <c:errBars>
             <c:errBarType val="both"/>
-            <c:errValType val="stdErr"/>
+            <c:errValType val="cust"/>
             <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Sheet1!$Y$34:$AB$34</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>14.773815582221085</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>2.9352991163193694</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>15.972139580327617</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>18.615927702444701</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Sheet1!$Y$34:$AB$34</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>14.773815582221085</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>2.9352991163193694</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>15.972139580327617</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>18.615927702444701</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
             <c:spPr>
               <a:noFill/>
               <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -1988,6 +2358,7 @@
         <c:axId val="701742143"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="120"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -2044,6 +2415,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="5.5555555555555552E-2"/>
+              <c:y val="1.3888888888888888E-2"/>
+            </c:manualLayout>
+          </c:layout>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2164,12 +2543,7 @@
       <a:schemeClr val="bg1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
+      <a:noFill/>
       <a:round/>
     </a:ln>
     <a:effectLst/>
@@ -3283,15 +3657,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>509587</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>119062</xdr:rowOff>
+      <xdr:colOff>242887</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>61912</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>280987</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>100012</xdr:rowOff>
+      <xdr:colOff>14287</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>33337</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3319,15 +3693,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>547687</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>14287</xdr:rowOff>
+      <xdr:colOff>433387</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>138112</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>319087</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>14287</xdr:rowOff>
+      <xdr:colOff>204787</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>138112</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3644,10 +4018,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V102"/>
+  <dimension ref="A1:AB102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="R29" sqref="R29:V34"/>
+    <sheetView tabSelected="1" topLeftCell="N4" workbookViewId="0">
+      <selection activeCell="X20" sqref="X20:AB34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4401,7 +4775,7 @@
         <v>71.51477641961938</v>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
         <v>29</v>
       </c>
@@ -4448,7 +4822,7 @@
         <v>79.368932038834956</v>
       </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
         <v>30</v>
       </c>
@@ -4501,7 +4875,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
         <v>31</v>
       </c>
@@ -4560,7 +4934,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
         <v>32</v>
       </c>
@@ -4612,8 +4986,11 @@
       <c r="R20" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="21" spans="1:22" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="X20" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="21" spans="1:28" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>33</v>
       </c>
@@ -4677,8 +5054,23 @@
         <f>AVERAGE(B7,K7)</f>
         <v>67.066523051225559</v>
       </c>
-    </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="X21" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y21" s="12">
+        <f>_xlfn.STDEV.P($D$6)</f>
+        <v>0</v>
+      </c>
+      <c r="Z21" s="12">
+        <f>_xlfn.STDEV.P($B$7:$B$10,$D$7,$B$13,$E$9,$E$13,$K$8,$K$9,$K$16,$M$7)</f>
+        <v>11.27265603154961</v>
+      </c>
+      <c r="AB21" s="12">
+        <f>_xlfn.STDEV.P($B$7,$K$7)</f>
+        <v>7.3156845270282087</v>
+      </c>
+    </row>
+    <row r="22" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
         <v>34</v>
       </c>
@@ -4746,8 +5138,27 @@
         <f>AVERAGE(B8:B9,B15:B16,E7:F9,F11,E13,E15:F16,H7,H9:H10,H14:H15,K8:K16,L15:L16,M13:M16,M7,M11,)</f>
         <v>71.581700060904666</v>
       </c>
-    </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="X22" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y22" s="12">
+        <f>_xlfn.STDEV.P($B$4:$B$6,$D$4:$D$5,$I$6)</f>
+        <v>3.8487441256834605</v>
+      </c>
+      <c r="Z22" s="12">
+        <f>_xlfn.STDEV.P($B$11:$B$12,$B$15:$B$16,$D$9,$D$11,$D$13,$D$15,$E$8,$E$10:$E$11,$E$14:$E$15,$F$8:$F$10,$F$16,$H$7:$H$11,$H$13,$H$15:$H$16,$K$7,$K$10:$K$15,$L$16,$M$8,$M$10,$M$12,$M$14:$M$16,)</f>
+        <v>14.066929074685909</v>
+      </c>
+      <c r="AA22" s="12">
+        <f>_xlfn.STDEV.P($B$3,$D$3)</f>
+        <v>3.7846439991844072</v>
+      </c>
+      <c r="AB22" s="12">
+        <f>_xlfn.STDEV.P($B$8:$B$9,$B$15:$B$16,$E$7:$F$9,$F$11,$E$13,$E$15:$F$16,$H$7,$H$9:$H$10,$H$14:$H$15,$K$8:$K$16,$L$15:$L$16,$M$13:$M$16,$M$7,$M$11,)</f>
+        <v>15.329211005650011</v>
+      </c>
+    </row>
+    <row r="23" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
         <v>35</v>
       </c>
@@ -4815,8 +5226,27 @@
         <f>AVERAGE(B10:B14,C7:C16,D12,D15,E10:E12,E14,F10,F12:F14,G15,H8,H11:H13,H16,I7:I16,J8,L13:L14,M8:M10,N10,N12,N14,O7:O16,)</f>
         <v>71.580065801128796</v>
       </c>
-    </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="X23" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y23" s="12">
+        <f>_xlfn.STDEV.P($B$2:$B$3,$D$3,$C$5:$C$6,$E$6,$I$4:$I$5,$K$5:$K$6,$L$6)</f>
+        <v>6.4827177565189773</v>
+      </c>
+      <c r="Z23" s="12">
+        <f>_xlfn.STDEV.P($C$7:$C$16,$B$14,$D$8,$D$10,$D$12,$D$14,$D$16,$E$16,$E$12,$E$7,$F$7,$F$11:$F$15,$G$15,$H$12,$H$14,$I$7:$I$16,$L$9,$L$11:$L$15,$M$9,$M$11,$M$13,$N$7:$N$13,$O$7:$O$16,$N$15:$N$16)</f>
+        <v>8.0704916608815527</v>
+      </c>
+      <c r="AA23" s="12">
+        <f>_xlfn.STDEV.P($B$4:$B$6,$C$5,$D$6,$F$4,$F$6,$I$3:$I$6,$K$5:$K$6,$M$5,$N$6)</f>
+        <v>4.807892308708376</v>
+      </c>
+      <c r="AB23" s="12">
+        <f>_xlfn.STDEV.P($B$10:$B$14,$C$7:$C$16,$D$12,$D$15,$E$10:$E$12,$E$14,$F$10,$F$12:$F$14,$G$15,$H$8,$H$11:$H$13,$H$16,$I$7:$I$16,$J$8,$L$13:$L$14,$M$8:$M$10,$N$10,$N$12,$N$14,$O$7:$O$16,)</f>
+        <v>12.24583579066759</v>
+      </c>
+    </row>
+    <row r="24" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
         <v>36</v>
       </c>
@@ -4884,8 +5314,27 @@
         <f>AVERAGE(D7:D11,D13:D14,D16,G7:G14,G16,J7,J9:J16,L7:L12,M12,N7:N9,N11,N13,N15:N16,)</f>
         <v>67.408007899969235</v>
       </c>
-    </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="X24" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y24" s="12">
+        <f>_xlfn.STDEV.P($C$2:$C$4,$D$2,$E$2:$E$5,$F$2:$F$6,$G$2:$G$6,$H$2:$H$6,$I$2:$I$3,$J$2:$J$6,$K$2:$K$4,$L$2:$L$5,$M$2:$M$6,$N$2:$N$6,$O$2:$O$6)</f>
+        <v>6.7883063284608385</v>
+      </c>
+      <c r="Z24" s="12">
+        <f>_xlfn.STDEV.P($G$7:$G$14,$J$7:$J$16,$L$7:$L$8,$L$10,$N$14,)</f>
+        <v>16.923444609752828</v>
+      </c>
+      <c r="AA24" s="12">
+        <f>_xlfn.STDEV.P($B$2:$O$2,$C$3:$C$4,$C$6,$D$4,$E$3:$E$6,$D$5,$F$3,$F$5,$G$3:$H$6,$J$3:$J$6,$K$3:$K$4,$L$3:$L$6,$M$3:$O$4,$N$5:$O$5,$O$6,$M$6,)</f>
+        <v>10.205560786875287</v>
+      </c>
+      <c r="AB24" s="12">
+        <f>_xlfn.STDEV.P($D$7:$D$11,$D$13:$D$14,$D$16,$G$7:$G$14,$G$16,$J$7,$J$9:$J$16,$L$7:$L$12,$M$12,$N$7:$N$9,$N$11,$N$13,$N$15:$N$16,)</f>
+        <v>14.084082935128158</v>
+      </c>
+    </row>
+    <row r="25" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
         <v>37</v>
       </c>
@@ -4932,7 +5381,7 @@
         <v>98.950949815707403</v>
       </c>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A26" s="1" t="s">
         <v>38</v>
       </c>
@@ -4979,7 +5428,7 @@
         <v>98.645353562720132</v>
       </c>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A27" s="1" t="s">
         <v>39</v>
       </c>
@@ -5026,7 +5475,7 @@
         <v>99.066546221017774</v>
       </c>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A28" s="1" t="s">
         <v>40</v>
       </c>
@@ -5076,7 +5525,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A29" s="1" t="s">
         <v>41</v>
       </c>
@@ -5135,7 +5584,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A30" s="1" t="s">
         <v>42</v>
       </c>
@@ -5199,8 +5648,23 @@
         <f>AVERAGE(B30,K30,)</f>
         <v>65.030283721605628</v>
       </c>
-    </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="X30" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z30" s="12">
+        <f>_xlfn.STDEV.P($B$30:$B$31,$I$30,$K$31,$M$22:$M$23,)</f>
+        <v>33.325307875755684</v>
+      </c>
+      <c r="AA30" s="12">
+        <f>_xlfn.STDEV.P($I$21)</f>
+        <v>0</v>
+      </c>
+      <c r="AB30" s="12">
+        <f>_xlfn.STDEV.P($B$30,$K$30,)</f>
+        <v>45.983397387919346</v>
+      </c>
+    </row>
+    <row r="31" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A31" s="1" t="s">
         <v>43</v>
       </c>
@@ -5268,8 +5732,27 @@
         <f>AVERAGE(B28,B31,C30:E30,C31,H31:I31,I30,K29,K31,M24:M27,N30:O30,)</f>
         <v>86.75445156470137</v>
       </c>
-    </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="X31" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y31" s="12">
+        <f>_xlfn.STDEV.P($B$17,$B$21,$D$21)</f>
+        <v>1.7841807774523428</v>
+      </c>
+      <c r="Z31" s="12">
+        <f>_xlfn.STDEV.P($B$26,$B$28:$B$29,$D$22:$D$24,$D$26,$D$28,$C$30:$D$31,$E$31,$I$26,$I$28,$I$31,$K$30,$M$30:$M$31,$M$24,$O$31,$M$25,$M$28,$M$26:$M$27,)</f>
+        <v>18.750454978102237</v>
+      </c>
+      <c r="AA31" s="12">
+        <f>_xlfn.STDEV.P($B$20,$D$21:$E$21,$K$21,)</f>
+        <v>39.335885402793899</v>
+      </c>
+      <c r="AB31" s="12">
+        <f>_xlfn.STDEV.P($B$28,$B$31,$C$30:$E$30,$C$31,$H$31:$I$31,$I$30,$K$29,$K$31,$M$24:$M$27,$N$30:$O$30,)</f>
+        <v>22.670297041591322</v>
+      </c>
+    </row>
+    <row r="32" spans="1:28" x14ac:dyDescent="0.15">
       <c r="Q32" t="s">
         <v>56</v>
       </c>
@@ -5292,8 +5775,27 @@
         <f>AVERAGE(B24:B25,B27,B29,C28:C29,D24:D26,D31:F31,F30,F26,H27,H29:H30,I25:I29,K22:K23,K27:K28,L24,L26:L28,L30:L31,M28:M31,N22,N25:N26,N28,N31:O31,)</f>
         <v>89.555341657524281</v>
       </c>
-    </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="X32" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y32" s="12">
+        <f>_xlfn.STDEV.P($B$19:$B$20,$D$20,$D$18,$E$21,$I$21,$K$21,)</f>
+        <v>32.084495877247598</v>
+      </c>
+      <c r="Z32" s="12">
+        <f>_xlfn.STDEV.P($B$22:$B$25,$C$22,$C$28:$C$29,$D$25,$D$27,$D$29,$H$22:$I$22,$I$24,$I$27,$N$28,$K$28:$L$28,$K$29,$M$29,$H$28,$I$29,$H$30:$H$31,$K$22:$K$23,$L$30:$L$31,$N$30:$N$31,$O$30,)</f>
+        <v>17.803329804026692</v>
+      </c>
+      <c r="AA32" s="12">
+        <f>_xlfn.STDEV.P($B$18:$B$19,$B$21,$D$17,$E$20,$F$21,$I$19:$I$20,$K$19:$K$20,)</f>
+        <v>27.720978181675026</v>
+      </c>
+      <c r="AB32" s="12">
+        <f>_xlfn.STDEV.P($B$24:$B$25,$B$27,$B$29,$C$28:$C$29,$D$24:$D$26,$D$31:$F$31,$F$30,$F$26,$H$27,$H$29:$H$30,$I$25:$I$29,$K$22:$K$23,$K$27:$K$28,$L$24,$L$26:$L$28,$L$30:$L$31,$M$28:$M$31,$N$22,$N$25:$N$26,$N$28,$N$31:$O$31,)</f>
+        <v>15.434144088897687</v>
+      </c>
+    </row>
+    <row r="33" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A33" s="2" t="s">
         <v>44</v>
       </c>
@@ -5319,8 +5821,27 @@
         <f>AVERAGE(B22:B23,B26,C22:C27,D22,D27,D29,F22:F25,F27:F29,G22,G26:H26,G28:G31,H28,H22:H23,I22:I24,J31,K24:K26,L25,L29,L22:M23,N23:N24,O22:O25,N27:O27,O28:O29,N29,)</f>
         <v>93.07326423744702</v>
       </c>
-    </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="X33" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y33" s="12">
+        <f>_xlfn.STDEV.P($D$17,$B$18,$C$21,$D$19,$E$19:$E$20,$F$20:$F$21,$I$20,$N$17:$N$21,$L$20:$M$21,$O$21,)</f>
+        <v>21.118756348980902</v>
+      </c>
+      <c r="Z33" s="12">
+        <f>_xlfn.STDEV.P($B$27,$C$23:$C$27,$E$22,$E$26,$E$28,$E$30,$F$22:$F$30,$G$22:$G$24,$F$31,$G$26,$G$28,$G$30:$G$31,$H$23:$H$24,$H$27,$H$29,$I$23,$I$25,$K$24:$K$27,$L$22:$L$27,$L$29,$N$22:$N$27,$O$22:$O$29,$N$29)</f>
+        <v>4.8748297904466318</v>
+      </c>
+      <c r="AA33" s="12">
+        <f>_xlfn.STDEV.P($C$21,$D$19:$D$20,$F$19:$F$20,$G$21:$H$21,$I$17:$J$17,$N$17,$L$19:$N$21,$O$20:$O$21,)</f>
+        <v>20.103120490215048</v>
+      </c>
+      <c r="AB33" s="12">
+        <f>_xlfn.STDEV.P($B$22:$B$23,$B$26,$C$22:$C$27,$D$22,$D$27,$D$29,$F$22:$F$25,$F$27:$F$29,$G$22,$G$26:$H$26,$G$28:$G$31,$H$28,$H$22:$H$23,$I$22:$I$24,$J$31,$K$24:$K$26,$L$25,$L$29,$L$22:$M$23,$N$23:$N$24,$O$22:$O$25,$N$27:$O$27,$O$28:$O$29,$N$29,)</f>
+        <v>13.839091539823148</v>
+      </c>
+    </row>
+    <row r="34" spans="1:28" x14ac:dyDescent="0.15">
       <c r="B34" s="1" t="s">
         <v>0</v>
       </c>
@@ -5385,8 +5906,27 @@
         <f>AVERAGE(D23,D28,E22:E29,G23:G25,G27,H24:H25,J22:J30,O26,)</f>
         <v>92.511036934063753</v>
       </c>
-    </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="X34" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y34" s="12">
+        <f>_xlfn.STDEV.P($C$17:$C$20,$E$17:$E$18,$F$17:$F$19,$G$17:$H$21,$I$17:$I$19,$J$17:$J$21,$K$17:$K$20,$L$17:$M$19,$O$17:$O$20,)</f>
+        <v>14.773815582221085</v>
+      </c>
+      <c r="Z34" s="12">
+        <f>_xlfn.STDEV.P($E$23:$E$25,$E$27,$E$29,$G$25,$G$27,$G$29,$H$25:$H$26,$J$22:$J$31)</f>
+        <v>2.9352991163193694</v>
+      </c>
+      <c r="AA34" s="12">
+        <f>_xlfn.STDEV.P($B$17:$C$17,$C$18:$C$20,$D$18:$H$18,$E$17:$H$17,$E$19,$G$19:$H$20,$I$18,$J$18:$J$21,$K$17:$M$18,$N$18,$O$17:$O$19,)</f>
+        <v>15.972139580327617</v>
+      </c>
+      <c r="AB34" s="12">
+        <f>_xlfn.STDEV.P($D$23,$D$28,$E$22:$E$29,$G$23:$G$25,$G$27,$H$24:$H$25,$J$22:$J$30,$O$26,)</f>
+        <v>18.615927702444701</v>
+      </c>
+    </row>
+    <row r="35" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A35" s="1" t="s">
         <v>14</v>
       </c>
@@ -5433,7 +5973,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A36" s="1" t="s">
         <v>15</v>
       </c>
@@ -5480,7 +6020,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A37" s="1" t="s">
         <v>16</v>
       </c>
@@ -5527,7 +6067,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A38" s="1" t="s">
         <v>17</v>
       </c>
@@ -5574,7 +6114,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A39" s="1" t="s">
         <v>18</v>
       </c>
@@ -5621,7 +6161,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A40" s="1" t="s">
         <v>19</v>
       </c>
@@ -5668,7 +6208,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A41" s="1" t="s">
         <v>20</v>
       </c>
@@ -5715,7 +6255,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A42" s="1" t="s">
         <v>21</v>
       </c>
@@ -5762,7 +6302,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A43" s="1" t="s">
         <v>22</v>
       </c>
@@ -5809,7 +6349,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A44" s="1" t="s">
         <v>23</v>
       </c>
@@ -5856,7 +6396,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="45" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A45" s="1" t="s">
         <v>24</v>
       </c>
@@ -5903,7 +6443,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="46" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A46" s="1" t="s">
         <v>25</v>
       </c>
@@ -5950,7 +6490,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="47" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A47" s="1" t="s">
         <v>26</v>
       </c>
@@ -5997,7 +6537,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="48" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A48" s="1" t="s">
         <v>27</v>
       </c>
@@ -8530,8 +9070,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0458DB38-14D0-4BAD-86C0-4A6157317C04}">
   <dimension ref="A1:EK102"/>
   <sheetViews>
-    <sheetView topLeftCell="Y7" workbookViewId="0">
-      <selection activeCell="AD36" sqref="AD36:AF49"/>
+    <sheetView topLeftCell="L16" workbookViewId="0">
+      <selection activeCell="W35" activeCellId="1" sqref="U35 W35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -12270,12 +12810,12 @@
         <v>2.9933637495030622E-3</v>
       </c>
       <c r="S44">
-        <f>T39*SQRT(138)/SQRT(T39^2)</f>
-        <v>-11.74734012447073</v>
+        <f>S39*SQRT(138)/SQRT(1-S39^2)</f>
+        <v>-2.6332532447287607</v>
       </c>
       <c r="T44">
         <f>TDIST(ABS(S44),138,2)</f>
-        <v>1.6129081532651016E-22</v>
+        <v>9.421790705208535E-3</v>
       </c>
       <c r="U44">
         <f>T39*SQRT(68)/SQRT(1-T39^2)</f>
@@ -12286,12 +12826,12 @@
         <v>7.9759416155953403E-2</v>
       </c>
       <c r="W44">
-        <f>U39*SQRT(138)/SQRT(U39^2)</f>
-        <v>-11.74734012447073</v>
+        <f>U39*SQRT(138)/SQRT(1-U39^2)</f>
+        <v>-2.2188253185144102</v>
       </c>
       <c r="X44">
         <f>TDIST(ABS(W44),138,2)</f>
-        <v>1.6129081532651016E-22</v>
+        <v>2.8132024949864956E-2</v>
       </c>
       <c r="Z44" t="s">
         <v>97</v>

--- a/kaiseki/around_150.xlsx
+++ b/kaiseki/around_150.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6048939b20a31529/ドキュメント/b4_analysis/kaiseki/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="63" documentId="13_ncr:1_{043469B7-2F82-4AE7-B12F-86246444AF04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A32BE9C2-F864-4906-831F-FD80380319B0}"/>
+  <xr:revisionPtr revIDLastSave="87" documentId="13_ncr:1_{043469B7-2F82-4AE7-B12F-86246444AF04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3062AAD3-9A4B-4E40-9F57-4D8A5CD656C9}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="17805" windowHeight="13575" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5220" yWindow="4035" windowWidth="19740" windowHeight="11220" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="111">
   <si>
     <t>imahashi</t>
   </si>
@@ -449,6 +449,45 @@
   <si>
     <t>t 境界値 両側</t>
   </si>
+  <si>
+    <t>通常：事前</t>
+    <rPh sb="0" eb="2">
+      <t>ツウジョウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ジゼン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>通常：事後</t>
+    <rPh sb="0" eb="2">
+      <t>ツウジョウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ジゴ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>SSE:レベル1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>SSE:レベル2</t>
+  </si>
+  <si>
+    <t>SSE:レベル3</t>
+  </si>
+  <si>
+    <t>SSE:レベル4</t>
+  </si>
+  <si>
+    <t>SSE:レベル5</t>
+  </si>
+  <si>
+    <t>t-検定: 分散が等しくないと仮定した２標本による検定</t>
+  </si>
 </sst>
 </file>
 
@@ -622,7 +661,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -644,6 +683,11 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -764,7 +808,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>se：0-20</c:v>
+                  <c:v>SSE:レベル1</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -803,13 +847,13 @@
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>普通：事前</c:v>
+                  <c:v>通常：事前</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>回転：事前</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>普通：事後</c:v>
+                  <c:v>通常：事後</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>回転：事後</c:v>
@@ -841,7 +885,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>se：21-40</c:v>
+                  <c:v>SSE:レベル2</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -916,13 +960,13 @@
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>普通：事前</c:v>
+                  <c:v>通常：事前</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>回転：事前</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>普通：事後</c:v>
+                  <c:v>通常：事後</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>回転：事後</c:v>
@@ -963,7 +1007,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>se：41-60</c:v>
+                  <c:v>SSE:レベル3</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1044,13 +1088,13 @@
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>普通：事前</c:v>
+                  <c:v>通常：事前</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>回転：事前</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>普通：事後</c:v>
+                  <c:v>通常：事後</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>回転：事後</c:v>
@@ -1094,7 +1138,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>se：61-80</c:v>
+                  <c:v>SSE:レベル4</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1175,13 +1219,13 @@
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>普通：事前</c:v>
+                  <c:v>通常：事前</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>回転：事前</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>普通：事後</c:v>
+                  <c:v>通常：事後</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>回転：事後</c:v>
@@ -1225,7 +1269,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>se：81-100</c:v>
+                  <c:v>SSE:レベル5</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1306,13 +1350,13 @@
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>普通：事前</c:v>
+                  <c:v>通常：事前</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>回転：事前</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>普通：事後</c:v>
+                  <c:v>通常：事後</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>回転：事後</c:v>
@@ -1415,7 +1459,7 @@
         <c:axId val="680051199"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="120"/>
+          <c:max val="100"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1653,7 +1697,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>se：0-20</c:v>
+                  <c:v>SSE:レベル1</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1728,13 +1772,13 @@
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>普通：事前</c:v>
+                  <c:v>通常：事前</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>回転：事前</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>普通：事後</c:v>
+                  <c:v>通常：事後</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>回転：事後</c:v>
@@ -1775,7 +1819,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>se：21-40</c:v>
+                  <c:v>SSE:レベル2</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1856,13 +1900,13 @@
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>普通：事前</c:v>
+                  <c:v>通常：事前</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>回転：事前</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>普通：事後</c:v>
+                  <c:v>通常：事後</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>回転：事後</c:v>
@@ -1906,7 +1950,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>se：41-60</c:v>
+                  <c:v>SSE:レベル3</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1987,13 +2031,13 @@
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>普通：事前</c:v>
+                  <c:v>通常：事前</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>回転：事前</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>普通：事後</c:v>
+                  <c:v>通常：事後</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>回転：事後</c:v>
@@ -2037,7 +2081,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>se：61-80</c:v>
+                  <c:v>SSE:レベル4</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2118,13 +2162,13 @@
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>普通：事前</c:v>
+                  <c:v>通常：事前</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>回転：事前</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>普通：事後</c:v>
+                  <c:v>通常：事後</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>回転：事後</c:v>
@@ -2168,7 +2212,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>se：81-100</c:v>
+                  <c:v>SSE:レベル5</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2249,13 +2293,13 @@
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>普通：事前</c:v>
+                  <c:v>通常：事前</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>回転：事前</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>普通：事後</c:v>
+                  <c:v>通常：事後</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>回転：事後</c:v>
@@ -2358,7 +2402,7 @@
         <c:axId val="701742143"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="120"/>
+          <c:max val="100"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -3656,16 +3700,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>242887</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>61912</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>633412</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>128587</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>14287</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>33337</xdr:rowOff>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>404812</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>109537</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3692,16 +3736,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>433387</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>138112</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>204787</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>109537</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>204787</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>138112</xdr:rowOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>661987</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>109537</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4020,8 +4064,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N4" workbookViewId="0">
-      <selection activeCell="X20" sqref="X20:AB34"/>
+    <sheetView topLeftCell="N4" workbookViewId="0">
+      <selection activeCell="R20" sqref="R20:R34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4922,13 +4966,13 @@
         <v>87.887887887887885</v>
       </c>
       <c r="S19" t="s">
-        <v>50</v>
+        <v>103</v>
       </c>
       <c r="T19" t="s">
         <v>51</v>
       </c>
       <c r="U19" t="s">
-        <v>52</v>
+        <v>104</v>
       </c>
       <c r="V19" t="s">
         <v>53</v>
@@ -4984,7 +5028,7 @@
         <v>54</v>
       </c>
       <c r="R20" t="s">
-        <v>60</v>
+        <v>105</v>
       </c>
       <c r="X20" t="s">
         <v>60</v>
@@ -5040,7 +5084,7 @@
         <v>55</v>
       </c>
       <c r="R21" t="s">
-        <v>61</v>
+        <v>106</v>
       </c>
       <c r="S21" s="12">
         <f>AVERAGE(D6)</f>
@@ -5120,7 +5164,7 @@
         <v>56</v>
       </c>
       <c r="R22" t="s">
-        <v>62</v>
+        <v>107</v>
       </c>
       <c r="S22" s="12">
         <f>AVERAGE(B4:B6,D4:D5,I6)</f>
@@ -5208,7 +5252,7 @@
         <v>57</v>
       </c>
       <c r="R23" t="s">
-        <v>63</v>
+        <v>108</v>
       </c>
       <c r="S23" s="12">
         <f>AVERAGE(B2:B3,D3,C5:C6,E6,I4:I5,K5:K6,L6)</f>
@@ -5296,7 +5340,7 @@
         <v>58</v>
       </c>
       <c r="R24" t="s">
-        <v>64</v>
+        <v>109</v>
       </c>
       <c r="S24" s="12">
         <f>AVERAGE(C2:C4,D2,E2:E5,F2:F6,G2:G6,H2:H6,I2:I3,J2:J6,K2:K4,L2:L5,M2:M6,N2:N6,O2:O6)</f>
@@ -5572,13 +5616,13 @@
         <v>84.144427001569852</v>
       </c>
       <c r="S29" t="s">
-        <v>50</v>
+        <v>103</v>
       </c>
       <c r="T29" t="s">
         <v>51</v>
       </c>
       <c r="U29" t="s">
-        <v>52</v>
+        <v>104</v>
       </c>
       <c r="V29" t="s">
         <v>53</v>
@@ -5634,7 +5678,7 @@
         <v>54</v>
       </c>
       <c r="R30" t="s">
-        <v>60</v>
+        <v>105</v>
       </c>
       <c r="T30" s="12">
         <f>AVERAGE(B30:B31,I30,K31,M22:M23,)</f>
@@ -5714,7 +5758,7 @@
         <v>55</v>
       </c>
       <c r="R31" t="s">
-        <v>61</v>
+        <v>106</v>
       </c>
       <c r="S31" s="12">
         <f>AVERAGE(B17,B21,D21)</f>
@@ -5757,7 +5801,7 @@
         <v>56</v>
       </c>
       <c r="R32" t="s">
-        <v>62</v>
+        <v>107</v>
       </c>
       <c r="S32" s="12">
         <f>AVERAGE(B19:B20,D20,D18,E21,I21,K21,)</f>
@@ -5803,7 +5847,7 @@
         <v>57</v>
       </c>
       <c r="R33" t="s">
-        <v>63</v>
+        <v>108</v>
       </c>
       <c r="S33" s="12">
         <f>AVERAGE(D17,B18,C21,D19,E19:E20,F20:F21,I20,N17:N21,L20:M21,O21,)</f>
@@ -5888,7 +5932,7 @@
         <v>58</v>
       </c>
       <c r="R34" t="s">
-        <v>64</v>
+        <v>109</v>
       </c>
       <c r="S34" s="12">
         <f>AVERAGE(C17:C20,E17:E18,F17:F19,G17:H21,I17:I19,J17:J21,K17:K20,L17:M19,O17:O20,)</f>
@@ -9070,8 +9114,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0458DB38-14D0-4BAD-86C0-4A6157317C04}">
   <dimension ref="A1:EK102"/>
   <sheetViews>
-    <sheetView topLeftCell="L16" workbookViewId="0">
-      <selection activeCell="W35" activeCellId="1" sqref="U35 W35"/>
+    <sheetView tabSelected="1" topLeftCell="W25" workbookViewId="0">
+      <selection activeCell="AH35" sqref="AH35:AJ47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -12039,7 +12083,7 @@
         <v>1.3270069269547311E-4</v>
       </c>
     </row>
-    <row r="33" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A33" s="2" t="s">
         <v>44</v>
       </c>
@@ -12056,7 +12100,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="34" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:40" x14ac:dyDescent="0.15">
       <c r="B34" s="1" t="s">
         <v>0</v>
       </c>
@@ -12120,7 +12164,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="35" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A35" s="1" t="s">
         <v>14</v>
       </c>
@@ -12188,8 +12232,14 @@
       <c r="AD35" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="36" spans="1:32" x14ac:dyDescent="0.15">
+      <c r="AH35" t="s">
+        <v>110</v>
+      </c>
+      <c r="AL35" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="36" spans="1:40" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>15</v>
       </c>
@@ -12245,7 +12295,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="37" spans="1:32" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:40" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>16</v>
       </c>
@@ -12294,8 +12344,22 @@
       <c r="Q37" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="38" spans="1:32" x14ac:dyDescent="0.15">
+      <c r="AH37" s="17"/>
+      <c r="AI37" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ37" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="AL37" s="17"/>
+      <c r="AM37" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="AN37" s="17" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="38" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A38" s="1" t="s">
         <v>17</v>
       </c>
@@ -12367,8 +12431,26 @@
       <c r="AF38" s="14" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="39" spans="1:32" x14ac:dyDescent="0.15">
+      <c r="AH38" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="AI38" s="15">
+        <v>57.125030964402498</v>
+      </c>
+      <c r="AJ38" s="15">
+        <v>71.828083473180911</v>
+      </c>
+      <c r="AL38" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="AM38" s="15">
+        <v>93.065359379017664</v>
+      </c>
+      <c r="AN38" s="15">
+        <v>93.795035261748964</v>
+      </c>
+    </row>
+    <row r="39" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A39" s="1" t="s">
         <v>18</v>
       </c>
@@ -12451,8 +12533,26 @@
       <c r="AF39">
         <v>93.795035261748964</v>
       </c>
-    </row>
-    <row r="40" spans="1:32" x14ac:dyDescent="0.15">
+      <c r="AH39" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="AI39" s="15">
+        <v>45.946636880923862</v>
+      </c>
+      <c r="AJ39" s="15">
+        <v>85.802252818166153</v>
+      </c>
+      <c r="AL39" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="AM39" s="15">
+        <v>26.792201341132031</v>
+      </c>
+      <c r="AN39" s="15">
+        <v>41.504153733123609</v>
+      </c>
+    </row>
+    <row r="40" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A40" s="1" t="s">
         <v>19</v>
       </c>
@@ -12535,8 +12635,26 @@
       <c r="AF40">
         <v>41.504153733123609</v>
       </c>
-    </row>
-    <row r="41" spans="1:32" x14ac:dyDescent="0.15">
+      <c r="AH40" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="AI40" s="15">
+        <v>70</v>
+      </c>
+      <c r="AJ40" s="15">
+        <v>140</v>
+      </c>
+      <c r="AL40" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="AM40" s="15">
+        <v>70</v>
+      </c>
+      <c r="AN40" s="15">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="41" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A41" s="1" t="s">
         <v>20</v>
       </c>
@@ -12600,8 +12718,22 @@
       <c r="AF41">
         <v>140</v>
       </c>
-    </row>
-    <row r="42" spans="1:32" x14ac:dyDescent="0.15">
+      <c r="AH41" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="AI41" s="15">
+        <v>0</v>
+      </c>
+      <c r="AJ41" s="15"/>
+      <c r="AL41" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="AM41" s="15">
+        <v>0</v>
+      </c>
+      <c r="AN41" s="15"/>
+    </row>
+    <row r="42" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A42" s="1" t="s">
         <v>21</v>
       </c>
@@ -12671,8 +12803,22 @@
       <c r="AE42">
         <v>36.623746449241786</v>
       </c>
-    </row>
-    <row r="43" spans="1:32" x14ac:dyDescent="0.15">
+      <c r="AH42" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="AI42" s="15">
+        <v>180</v>
+      </c>
+      <c r="AJ42" s="15"/>
+      <c r="AL42" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="AM42" s="15">
+        <v>167</v>
+      </c>
+      <c r="AN42" s="15"/>
+    </row>
+    <row r="43" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A43" s="1" t="s">
         <v>22</v>
       </c>
@@ -12754,8 +12900,22 @@
       <c r="AE43">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:32" x14ac:dyDescent="0.15">
+      <c r="AH43" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="AI43" s="15">
+        <v>-13.050684138090679</v>
+      </c>
+      <c r="AJ43" s="15"/>
+      <c r="AL43" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="AM43" s="15">
+        <v>-0.88538035779561097</v>
+      </c>
+      <c r="AN43" s="15"/>
+    </row>
+    <row r="44" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A44" s="1" t="s">
         <v>23</v>
       </c>
@@ -12845,8 +13005,22 @@
       <c r="AE44">
         <v>208</v>
       </c>
-    </row>
-    <row r="45" spans="1:32" x14ac:dyDescent="0.15">
+      <c r="AH44" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="AI44" s="15">
+        <v>3.9758055902937157E-28</v>
+      </c>
+      <c r="AJ44" s="15"/>
+      <c r="AL44" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="AM44" s="15">
+        <v>0.18861228862567669</v>
+      </c>
+      <c r="AN44" s="15"/>
+    </row>
+    <row r="45" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A45" s="1" t="s">
         <v>24</v>
       </c>
@@ -12916,8 +13090,22 @@
       <c r="AE45">
         <v>-0.82366762943777405</v>
       </c>
-    </row>
-    <row r="46" spans="1:32" x14ac:dyDescent="0.15">
+      <c r="AH45" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="AI45" s="15">
+        <v>1.6533630134974617</v>
+      </c>
+      <c r="AJ45" s="15"/>
+      <c r="AL45" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="AM45" s="15">
+        <v>1.6540291281334114</v>
+      </c>
+      <c r="AN45" s="15"/>
+    </row>
+    <row r="46" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A46" s="1" t="s">
         <v>25</v>
       </c>
@@ -12999,8 +13187,22 @@
       <c r="AE46">
         <v>0.20553592521355318</v>
       </c>
-    </row>
-    <row r="47" spans="1:32" x14ac:dyDescent="0.15">
+      <c r="AH46" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="AI46" s="15">
+        <v>7.9516111805874314E-28</v>
+      </c>
+      <c r="AJ46" s="15"/>
+      <c r="AL46" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="AM46" s="15">
+        <v>0.37722457725135339</v>
+      </c>
+      <c r="AN46" s="15"/>
+    </row>
+    <row r="47" spans="1:40" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>26</v>
       </c>
@@ -13090,8 +13292,22 @@
       <c r="AE47">
         <v>1.6522123760661407</v>
       </c>
-    </row>
-    <row r="48" spans="1:32" x14ac:dyDescent="0.15">
+      <c r="AH47" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="AI47" s="16">
+        <v>1.973230823071547</v>
+      </c>
+      <c r="AJ47" s="16"/>
+      <c r="AL47" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="AM47" s="16">
+        <v>1.9742709570280526</v>
+      </c>
+      <c r="AN47" s="16"/>
+    </row>
+    <row r="48" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A48" s="1" t="s">
         <v>27</v>
       </c>
